--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F7EF7-584C-4622-81F5-AC07E28BB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C4EA3-B710-458D-8B58-43894E033D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CC174E2-BE75-48A2-8DBE-548AA62A0029}"/>
+    <workbookView xWindow="940" yWindow="1480" windowWidth="11660" windowHeight="9130" xr2:uid="{0CC174E2-BE75-48A2-8DBE-548AA62A0029}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="2" r:id="rId1"/>
     <sheet name="historical" sheetId="1" r:id="rId2"/>
+    <sheet name="지방" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="393">
   <si>
     <t>InsideGov</t>
   </si>
@@ -327,12 +328,6 @@
     <t>정책국</t>
   </si>
   <si>
-    <t>중앙위원회_중앙군사위원회</t>
-  </si>
-  <si>
-    <t>중앙위원회_중앙검사위원회</t>
-  </si>
-  <si>
     <t>1.1.3</t>
   </si>
   <si>
@@ -438,12 +433,6 @@
     <t>1.1.37</t>
   </si>
   <si>
-    <t>1.1.38</t>
-  </si>
-  <si>
-    <t>1.1.39</t>
-  </si>
-  <si>
     <t>중앙위원회_평양직할시지방당</t>
   </si>
   <si>
@@ -888,18 +877,6 @@
     <t>3.43.0</t>
   </si>
   <si>
-    <t>사무장, 국장</t>
-  </si>
-  <si>
-    <t>당책임비서, 참사</t>
-  </si>
-  <si>
-    <t>국장, 제1부국장, 부국장, 정치국장, 정치부국장</t>
-  </si>
-  <si>
-    <t>당책임비서, 당비서, 참모장, 부참모장</t>
-  </si>
-  <si>
     <t>부상</t>
   </si>
   <si>
@@ -939,9 +916,6 @@
     <t>최고인민회의</t>
   </si>
   <si>
-    <t>검찰재판소</t>
-  </si>
-  <si>
     <t>시도군인민위원회</t>
   </si>
   <si>
@@ -994,6 +968,255 @@
   </si>
   <si>
     <t>대표부</t>
+  </si>
+  <si>
+    <t>서기장, 위원</t>
+  </si>
+  <si>
+    <t>5.1.0</t>
+  </si>
+  <si>
+    <t>의장</t>
+  </si>
+  <si>
+    <t>부의장</t>
+  </si>
+  <si>
+    <t>상임위원회</t>
+  </si>
+  <si>
+    <t>대의원</t>
+  </si>
+  <si>
+    <t>서기장, 위원, 참사, 당비서</t>
+  </si>
+  <si>
+    <t>상임위원회_대외사업부</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>과장</t>
+  </si>
+  <si>
+    <t>법제위원회</t>
+  </si>
+  <si>
+    <t>5.2.0</t>
+  </si>
+  <si>
+    <t>예산위원회</t>
+  </si>
+  <si>
+    <t>5.3.0</t>
+  </si>
+  <si>
+    <t>외교위원회</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>자격심사위원회</t>
+  </si>
+  <si>
+    <t>5.5.0</t>
+  </si>
+  <si>
+    <t>중앙선거위원회</t>
+  </si>
+  <si>
+    <t>5.6.0</t>
+  </si>
+  <si>
+    <t>제1부소장, 부소장</t>
+  </si>
+  <si>
+    <t>제1처</t>
+  </si>
+  <si>
+    <t>검사</t>
+  </si>
+  <si>
+    <t>6.1.0</t>
+  </si>
+  <si>
+    <t>6.2.0</t>
+  </si>
+  <si>
+    <t>남포시</t>
+  </si>
+  <si>
+    <t>나선시</t>
+  </si>
+  <si>
+    <t>평안남도</t>
+  </si>
+  <si>
+    <t>평안북도</t>
+  </si>
+  <si>
+    <t>황해남도</t>
+  </si>
+  <si>
+    <t>황대북도</t>
+  </si>
+  <si>
+    <t>함경남도</t>
+  </si>
+  <si>
+    <t>함경북도</t>
+  </si>
+  <si>
+    <t>자강도</t>
+  </si>
+  <si>
+    <t>강원도</t>
+  </si>
+  <si>
+    <t>양강도</t>
+  </si>
+  <si>
+    <t>지방</t>
+  </si>
+  <si>
+    <t>검찰소</t>
+  </si>
+  <si>
+    <t>인민위원회</t>
+  </si>
+  <si>
+    <t>평양시</t>
+  </si>
+  <si>
+    <t>인민회</t>
+  </si>
+  <si>
+    <t>평양시검찰소</t>
+  </si>
+  <si>
+    <t>남포시검찰소</t>
+  </si>
+  <si>
+    <t>나선시검찰소</t>
+  </si>
+  <si>
+    <t>평안남도검찰소</t>
+  </si>
+  <si>
+    <t>평안북도검찰소</t>
+  </si>
+  <si>
+    <t>황해남도검찰소</t>
+  </si>
+  <si>
+    <t>황대북도검찰소</t>
+  </si>
+  <si>
+    <t>함경남도검찰소</t>
+  </si>
+  <si>
+    <t>함경북도검찰소</t>
+  </si>
+  <si>
+    <t>자강도검찰소</t>
+  </si>
+  <si>
+    <t>강원도검찰소</t>
+  </si>
+  <si>
+    <t>양강도검찰소</t>
+  </si>
+  <si>
+    <t>6.3.0</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>6.5.0</t>
+  </si>
+  <si>
+    <t>6.6.0</t>
+  </si>
+  <si>
+    <t>6.7.0</t>
+  </si>
+  <si>
+    <t>6.8.0</t>
+  </si>
+  <si>
+    <t>6.9.0</t>
+  </si>
+  <si>
+    <t>6.10.0</t>
+  </si>
+  <si>
+    <t>6.11.0</t>
+  </si>
+  <si>
+    <t>6.12.0</t>
+  </si>
+  <si>
+    <t>6.13.0</t>
+  </si>
+  <si>
+    <t>중앙재판소</t>
+  </si>
+  <si>
+    <t>중앙검찰소</t>
+  </si>
+  <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
+    <t>판사, 참사, 서기</t>
+  </si>
+  <si>
+    <t>지방재판소</t>
+  </si>
+  <si>
+    <t>7.X.0</t>
+  </si>
+  <si>
+    <t>당책임비서, 사무장</t>
+  </si>
+  <si>
+    <t>부국장, 참사</t>
+  </si>
+  <si>
+    <t>중앙군사위원회</t>
+  </si>
+  <si>
+    <t>중앙검사위원회</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>당책임비서, 위원장</t>
+  </si>
+  <si>
+    <t>당비서, 부위원장</t>
+  </si>
+  <si>
+    <t>참모장, 부참모장</t>
+  </si>
+  <si>
+    <t>국장, 정치국장, 제1부국장, 부국장,  정치부국장</t>
+  </si>
+  <si>
+    <t>3.34.1</t>
+  </si>
+  <si>
+    <t>전력공업성_송변전관리국</t>
+  </si>
+  <si>
+    <t>기사장, 처장</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1149,6 +1372,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1464,22 +1688,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BACEB8E-C0F9-4C5A-9CBE-784153896C3D}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" style="11" customWidth="1"/>
-    <col min="6" max="8" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1">
@@ -1521,7 +1747,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1547,7 +1773,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1562,12 +1788,8 @@
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1804,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1617,7 +1839,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -1652,29 +1874,26 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="11">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -1687,29 +1906,26 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E7" s="11">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -1722,17 +1938,17 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -1740,9 +1956,6 @@
       <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
@@ -1754,23 +1967,23 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="11">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -1786,17 +1999,17 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="11">
         <v>2</v>
@@ -1815,17 +2028,17 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="11">
         <v>2</v>
@@ -1834,7 +2047,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
@@ -1847,17 +2060,17 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="11">
         <v>2</v>
@@ -1865,6 +2078,9 @@
       <c r="F12" t="s">
         <v>77</v>
       </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
@@ -1876,17 +2092,17 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="11">
         <v>2</v>
@@ -1895,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -1908,17 +2124,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
@@ -1926,9 +2142,6 @@
       <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
       <c r="I14" t="s">
         <v>27</v>
       </c>
@@ -1940,17 +2153,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15">
+      <c r="A15" s="11">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
@@ -1958,9 +2171,6 @@
       <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
@@ -1972,17 +2182,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
+      <c r="A16" s="11">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" s="11">
         <v>2</v>
@@ -1990,6 +2200,9 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
       <c r="I16" t="s">
         <v>27</v>
       </c>
@@ -2001,17 +2214,17 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11">
         <v>2</v>
@@ -2019,6 +2232,9 @@
       <c r="F17" t="s">
         <v>77</v>
       </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
       <c r="I17" t="s">
         <v>27</v>
       </c>
@@ -2030,26 +2246,26 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="A18" s="11">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="11">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
@@ -2062,26 +2278,23 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -2094,26 +2307,23 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -2126,23 +2336,23 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21">
+      <c r="A21" s="11">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" s="11">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -2155,17 +2365,17 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22">
+      <c r="A22" s="11">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="11">
         <v>2</v>
@@ -2184,17 +2394,17 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23">
+      <c r="A23" s="11">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -2202,6 +2412,9 @@
       <c r="F23" t="s">
         <v>77</v>
       </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
       <c r="I23" t="s">
         <v>27</v>
       </c>
@@ -2213,17 +2426,17 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24">
+      <c r="A24" s="11">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" s="11">
         <v>2</v>
@@ -2231,6 +2444,9 @@
       <c r="F24" t="s">
         <v>77</v>
       </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" t="s">
         <v>27</v>
       </c>
@@ -2242,17 +2458,17 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="A25" s="11">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E25" s="11">
         <v>2</v>
@@ -2261,7 +2477,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -2274,26 +2490,23 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26">
+      <c r="A26" s="11">
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
         <v>27</v>
@@ -2306,26 +2519,23 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27">
+      <c r="A27" s="11">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
@@ -2338,23 +2548,29 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="A28" s="11">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
@@ -2367,23 +2583,26 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29">
+      <c r="A29" s="11">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -2396,17 +2615,17 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30">
+      <c r="A30" s="11">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
@@ -2417,9 +2636,6 @@
       <c r="G30" t="s">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
-        <v>87</v>
-      </c>
       <c r="I30" t="s">
         <v>27</v>
       </c>
@@ -2431,17 +2647,17 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31">
+      <c r="A31" s="11">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31" s="11">
         <v>2</v>
@@ -2463,17 +2679,17 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32">
+      <c r="A32" s="11">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" s="11">
         <v>2</v>
@@ -2495,17 +2711,17 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33">
+      <c r="A33" s="11">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="11">
         <v>2</v>
@@ -2527,17 +2743,17 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34">
+      <c r="A34" s="11">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="11">
         <v>2</v>
@@ -2559,17 +2775,17 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35">
+      <c r="A35" s="11">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" s="11">
         <v>2</v>
@@ -2591,17 +2807,17 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36">
+      <c r="A36" s="11">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E36" s="11">
         <v>2</v>
@@ -2623,17 +2839,17 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37">
+      <c r="A37" s="11">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" s="11">
         <v>2</v>
@@ -2655,17 +2871,17 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38">
+      <c r="A38" s="11">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="11">
         <v>2</v>
@@ -2687,17 +2903,17 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39">
+      <c r="A39" s="11">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="11">
         <v>2</v>
@@ -2719,17 +2935,17 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40">
+      <c r="A40" s="11">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" s="11">
         <v>2</v>
@@ -2751,26 +2967,29 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41">
+      <c r="A41" s="11">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="E41" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -2783,26 +3002,29 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42">
+      <c r="A42" s="11">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="E42" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -2815,7 +3037,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43">
+      <c r="A43" s="11">
         <v>1</v>
       </c>
       <c r="B43" t="s">
@@ -2847,7 +3069,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44">
+      <c r="A44" s="11">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -2879,7 +3101,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45">
+      <c r="A45" s="11">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -2911,14 +3133,14 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46">
+      <c r="A46" s="11">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>92</v>
@@ -2943,17 +3165,17 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47">
+      <c r="A47" s="11">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E47" s="11">
         <v>1</v>
@@ -2975,23 +3197,23 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48">
+      <c r="A48" s="11">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3004,29 +3226,29 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49">
+      <c r="A49" s="11">
         <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E49" s="11">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I49" t="s">
         <v>27</v>
@@ -3039,17 +3261,17 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50">
+      <c r="A50" s="11">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E50" s="11">
         <v>2</v>
@@ -3071,17 +3293,17 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51">
+      <c r="A51" s="11">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E51" s="11">
         <v>2</v>
@@ -3103,26 +3325,26 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52">
+      <c r="A52" s="11">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E52" s="11">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I52" t="s">
         <v>27</v>
@@ -3135,26 +3357,26 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53">
+      <c r="A53" s="11">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E53" s="11">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -3167,26 +3389,26 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54">
+      <c r="A54" s="11">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E54" s="11">
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -3199,26 +3421,26 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55">
+      <c r="A55" s="11">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -3231,14 +3453,14 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56">
+      <c r="A56" s="11">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>90</v>
@@ -3247,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -3263,14 +3485,14 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57">
+      <c r="A57" s="11">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>91</v>
@@ -3295,14 +3517,14 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58">
+      <c r="A58" s="11">
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>92</v>
@@ -3311,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -3327,17 +3549,17 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59">
+      <c r="A59" s="11">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E59" s="11">
         <v>2</v>
@@ -3359,23 +3581,23 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60">
+      <c r="A60" s="11">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E60" s="11">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -3388,17 +3610,17 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61">
+      <c r="A61" s="11">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E61" s="11">
         <v>2</v>
@@ -3420,17 +3642,17 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62">
+      <c r="A62" s="11">
         <v>1</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E62" s="11">
         <v>2</v>
@@ -3452,17 +3674,17 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63">
+      <c r="A63" s="11">
         <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E63" s="11">
         <v>2</v>
@@ -3484,17 +3706,17 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64">
+      <c r="A64" s="11">
         <v>1</v>
       </c>
       <c r="B64" t="s">
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E64" s="11">
         <v>2</v>
@@ -3516,17 +3738,17 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65">
+      <c r="A65" s="11">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E65" s="11">
         <v>2</v>
@@ -3548,17 +3770,17 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66">
+      <c r="A66" s="11">
         <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E66" s="11">
         <v>2</v>
@@ -3580,17 +3802,17 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67">
+      <c r="A67" s="11">
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E67" s="11">
         <v>2</v>
@@ -3612,17 +3834,17 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68">
+      <c r="A68" s="11">
         <v>1</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E68" s="11">
         <v>2</v>
@@ -3644,26 +3866,26 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69">
+      <c r="A69" s="11">
         <v>1</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E69" s="11">
         <v>0</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>285</v>
+      <c r="H69" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="I69" t="s">
         <v>27</v>
@@ -3676,29 +3898,29 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70">
+      <c r="A70" s="11">
         <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E70" s="11">
         <v>1</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>284</v>
+      <c r="F70" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="I70" t="s">
         <v>27</v>
@@ -3711,17 +3933,17 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71">
+      <c r="A71" s="11">
         <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E71" s="11">
         <v>1</v>
@@ -3743,17 +3965,17 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72">
+      <c r="A72" s="11">
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
@@ -3775,17 +3997,17 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73">
+      <c r="A73" s="11">
         <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E73" s="11">
         <v>1</v>
@@ -3796,7 +4018,7 @@
       <c r="G73" t="s">
         <v>52</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I73" t="s">
@@ -3810,17 +4032,17 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74">
+      <c r="A74" s="11">
         <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E74" s="11">
         <v>1</v>
@@ -3842,17 +4064,17 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75">
+      <c r="A75" s="11">
         <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E75" s="11">
         <v>1</v>
@@ -3874,17 +4096,17 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76">
+      <c r="A76" s="11">
         <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E76" s="11">
         <v>1</v>
@@ -3906,17 +4128,17 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77">
+      <c r="A77" s="11">
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E77" s="11">
         <v>1</v>
@@ -3938,17 +4160,17 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78">
+      <c r="A78" s="11">
         <v>1</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E78" s="11">
         <v>1</v>
@@ -3970,17 +4192,17 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79">
+      <c r="A79" s="11">
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E79" s="11">
         <v>1</v>
@@ -4005,29 +4227,29 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80">
+      <c r="A80" s="11">
         <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E80" s="11">
         <v>1</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>51</v>
+        <v>386</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>52</v>
+        <v>387</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -4040,26 +4262,26 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81">
+      <c r="A81" s="11">
         <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E81" s="11">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -4072,29 +4294,29 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82">
+      <c r="A82" s="11">
         <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E82" s="11">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H82" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -4107,26 +4329,26 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83">
+      <c r="A83" s="11">
         <v>1</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E83" s="11">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -4139,29 +4361,29 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84">
+      <c r="A84" s="11">
         <v>1</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E84" s="11">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4174,26 +4396,26 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85">
+      <c r="A85" s="11">
         <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E85" s="11">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4206,26 +4428,26 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86">
+      <c r="A86" s="11">
         <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E86" s="11">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4238,26 +4460,26 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87">
+      <c r="A87" s="11">
         <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E87" s="11">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4270,29 +4492,29 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88">
+      <c r="A88" s="11">
         <v>1</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E88" s="11">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4305,26 +4527,26 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89">
+      <c r="A89" s="11">
         <v>1</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E89" s="11">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G89" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4337,29 +4559,29 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90">
+      <c r="A90" s="11">
         <v>1</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E90" s="11">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G90" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H90" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4372,26 +4594,26 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91">
+      <c r="A91" s="11">
         <v>1</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E91" s="11">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G91" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4404,26 +4626,26 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92">
+      <c r="A92" s="11">
         <v>1</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E92" s="11">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G92" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I92" t="s">
         <v>27</v>
@@ -4436,26 +4658,26 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93">
+      <c r="A93" s="11">
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E93" s="11">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I93" t="s">
         <v>27</v>
@@ -4467,30 +4689,30 @@
         <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94">
+      <c r="A94" s="11">
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E94" s="11">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G94" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I94" t="s">
         <v>27</v>
@@ -4503,26 +4725,26 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95">
+      <c r="A95" s="11">
         <v>1</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E95" s="11">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G95" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I95" t="s">
         <v>27</v>
@@ -4535,26 +4757,26 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96">
+      <c r="A96" s="11">
         <v>1</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E96" s="11">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G96" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I96" t="s">
         <v>27</v>
@@ -4567,26 +4789,26 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97">
+      <c r="A97" s="11">
         <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E97" s="11">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G97" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I97" t="s">
         <v>27</v>
@@ -4599,26 +4821,26 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98">
+      <c r="A98" s="11">
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E98" s="11">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G98" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I98" t="s">
         <v>27</v>
@@ -4631,26 +4853,26 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99">
+      <c r="A99" s="11">
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E99" s="11">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G99" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -4663,26 +4885,26 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100">
+      <c r="A100" s="11">
         <v>1</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E100" s="11">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -4695,26 +4917,26 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101">
+      <c r="A101" s="11">
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E101" s="11">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G101" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -4727,26 +4949,26 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102">
+      <c r="A102" s="11">
         <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E102" s="11">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G102" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
@@ -4759,26 +4981,26 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103">
+      <c r="A103" s="11">
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E103" s="11">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -4790,30 +5012,33 @@
         <v>27</v>
       </c>
       <c r="L103" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104">
+      <c r="A104" s="11">
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="E104" s="11">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>168</v>
-      </c>
-      <c r="G104" t="s">
-        <v>287</v>
+        <v>2</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
@@ -4825,59 +5050,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E105" s="11">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>168</v>
-      </c>
-      <c r="G105" t="s">
-        <v>287</v>
-      </c>
-      <c r="I105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J105" t="s">
-        <v>27</v>
-      </c>
-      <c r="K105" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="106" spans="1:12">
-      <c r="A106">
+      <c r="A106" s="11">
         <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E106" s="11">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G106" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I106" t="s">
         <v>27</v>
@@ -4890,26 +5083,26 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107">
+      <c r="A107" s="11">
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E107" s="11">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G107" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I107" t="s">
         <v>27</v>
@@ -4922,29 +5115,26 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108">
+      <c r="A108" s="11">
         <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E108" s="11">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G108" t="s">
-        <v>287</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I108" t="s">
         <v>27</v>
@@ -4957,30 +5147,27 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109">
+      <c r="A109" s="11">
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D109" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109" s="11">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" t="s">
         <v>279</v>
       </c>
-      <c r="E109" s="11">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="I109" t="s">
         <v>27</v>
       </c>
@@ -4992,26 +5179,29 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110">
+      <c r="A110" s="11">
         <v>1</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E110" s="11">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>279</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="I110" t="s">
         <v>27</v>
@@ -5024,29 +5214,29 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111">
+      <c r="A111" s="11">
         <v>1</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E111" s="11">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="I111" t="s">
         <v>27</v>
@@ -5059,194 +5249,1077 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112">
+      <c r="A112" s="11">
         <v>1</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E112" s="11">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="11">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" s="11">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" t="s">
+        <v>285</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="11">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" s="11">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>287</v>
+      </c>
+      <c r="G114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="11">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J112" t="s">
-        <v>27</v>
-      </c>
-      <c r="K112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" t="s">
-        <v>298</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E113" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E114" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="E115" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>304</v>
-      </c>
-      <c r="C116" t="s">
-        <v>301</v>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="11">
+        <v>1</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E116" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="F116" t="s">
+        <v>312</v>
+      </c>
+      <c r="G116" t="s">
+        <v>313</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="11">
+        <v>1</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E117" s="11">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>51</v>
+      </c>
+      <c r="G117" t="s">
+        <v>52</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="11">
+        <v>1</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" s="11">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>77</v>
+      </c>
+      <c r="G118" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="11">
+        <v>1</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E119" s="11">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>51</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="11">
+        <v>1</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="11">
+        <v>1</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E121" s="11">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="11">
+        <v>1</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>51</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="11">
+        <v>1</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E123" s="11">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="11">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G124" t="s">
+        <v>330</v>
+      </c>
+      <c r="H124" s="13"/>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="11">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E125" s="11">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>332</v>
+      </c>
+      <c r="H125" s="13"/>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="11">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="11">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>82</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="11">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E127" s="11">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" t="s">
+        <v>83</v>
+      </c>
+      <c r="H127" s="13"/>
+      <c r="I127" t="s">
+        <v>27</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="11">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>375</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E128" s="11">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128" t="s">
+        <v>83</v>
+      </c>
+      <c r="H128" s="13"/>
+      <c r="I128" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="11">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>375</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" s="11">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="13"/>
+      <c r="I129" t="s">
+        <v>27</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="11">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E130" s="11">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>82</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" s="13"/>
+      <c r="I130" t="s">
+        <v>27</v>
+      </c>
+      <c r="J130" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="11">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>375</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" s="11">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>82</v>
+      </c>
+      <c r="G131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" t="s">
+        <v>27</v>
+      </c>
+      <c r="J131" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="11">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>375</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E132" s="11">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G132" t="s">
+        <v>83</v>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" t="s">
+        <v>27</v>
+      </c>
+      <c r="K132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="11">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E133" s="11">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G133" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="13"/>
+      <c r="I133" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="11">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E134" s="11">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" s="13"/>
+      <c r="I134" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="11">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>375</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E135" s="11">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>82</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" s="13"/>
+      <c r="I135" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="11">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>375</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E136" s="11">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>82</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" s="13"/>
+      <c r="I136" t="s">
+        <v>27</v>
+      </c>
+      <c r="J136" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="11">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E137" s="11">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>82</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" s="13"/>
+      <c r="I137" t="s">
+        <v>27</v>
+      </c>
+      <c r="J137" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="11">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" s="11">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" t="s">
+        <v>330</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I138" t="s">
+        <v>27</v>
+      </c>
+      <c r="J138" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="11">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E139" s="11">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" s="13"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="C140" s="13"/>
+      <c r="H140" s="13"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="C141" s="13"/>
+      <c r="H141" s="13"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="11">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" t="s">
+        <v>292</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="13"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="11">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143" s="11">
+        <v>0</v>
+      </c>
+      <c r="H143" s="13"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="11">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>294</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
+      <c r="H144" s="13"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="H145" s="13"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="11">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E146" s="11">
+        <v>0</v>
+      </c>
+      <c r="H146" s="13"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="H147" s="13"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="H148" s="13"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="H149" s="13"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="H150" s="13"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="H151" s="13"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="H152" s="13"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="H153" s="13"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="H154" s="13"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="H155" s="13"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="H156" s="13"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="H157" s="13"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="11">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
         <v>304</v>
       </c>
-      <c r="C117" t="s">
-        <v>302</v>
-      </c>
-      <c r="D117" s="11" t="s">
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="11">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="11">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="11">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="11">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" t="s">
         <v>309</v>
-      </c>
-      <c r="E117" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>304</v>
-      </c>
-      <c r="C118" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" t="s">
-        <v>311</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E119" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>315</v>
-      </c>
-      <c r="C123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>315</v>
-      </c>
-      <c r="C124" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +6333,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="14.5"/>
@@ -5709,4 +6782,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB45C595-6C14-438B-8741-63E41F265835}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="str">
+        <f>$A2&amp;B$1</f>
+        <v>평양시검찰소</v>
+      </c>
+      <c r="C2" t="str">
+        <f>$A2&amp;C$1</f>
+        <v>평양시인민위원회</v>
+      </c>
+      <c r="D2" t="str">
+        <f>$A2&amp;D$1</f>
+        <v>평양시인민회</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="str">
+        <f>$A3&amp;B$1</f>
+        <v>남포시검찰소</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:D13" si="0">$A3&amp;C$1</f>
+        <v>남포시인민위원회</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>남포시인민회</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B13" si="1">A4&amp;B$1</f>
+        <v>나선시검찰소</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>나선시인민위원회</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>나선시인민회</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>평안남도검찰소</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>평안남도인민위원회</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>평안남도인민회</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>평안북도검찰소</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>평안북도인민위원회</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>평안북도인민회</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>황해남도검찰소</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>황해남도인민위원회</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>황해남도인민회</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>황대북도검찰소</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>황대북도인민위원회</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>황대북도인민회</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>함경남도검찰소</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>함경남도인민위원회</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>함경남도인민회</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>함경북도검찰소</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>함경북도인민위원회</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>함경북도인민회</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>자강도검찰소</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>자강도인민위원회</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>자강도인민회</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>강원도검찰소</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>강원도인민위원회</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>강원도인민회</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>양강도검찰소</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>양강도인민위원회</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>양강도인민회</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C4EA3-B710-458D-8B58-43894E033D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770D002-E355-43AD-B070-E06046577D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1480" windowWidth="11660" windowHeight="9130" xr2:uid="{0CC174E2-BE75-48A2-8DBE-548AA62A0029}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CC174E2-BE75-48A2-8DBE-548AA62A0029}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="2" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1372,7 +1372,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1693,7 +1692,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5"/>
@@ -1788,8 +1787,6 @@
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
       <c r="H3" t="s">
         <v>53</v>
       </c>
@@ -3878,13 +3875,13 @@
       <c r="E69" s="11">
         <v>0</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" t="s">
         <v>389</v>
       </c>
       <c r="I69" t="s">
@@ -3913,13 +3910,13 @@
       <c r="E70" s="11">
         <v>1</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" t="s">
         <v>380</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" t="s">
         <v>381</v>
       </c>
       <c r="I70" t="s">
@@ -4018,7 +4015,7 @@
       <c r="G73" t="s">
         <v>52</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" t="s">
         <v>36</v>
       </c>
       <c r="I73" t="s">
@@ -5369,7 +5366,7 @@
       <c r="G115" t="s">
         <v>52</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="H115" t="s">
         <v>310</v>
       </c>
       <c r="I115" t="s">
@@ -5401,7 +5398,7 @@
       <c r="G116" t="s">
         <v>313</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="H116" t="s">
         <v>315</v>
       </c>
       <c r="I116" t="s">
@@ -5436,7 +5433,7 @@
       <c r="G117" t="s">
         <v>52</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="H117" t="s">
         <v>316</v>
       </c>
       <c r="I117" t="s">
@@ -5503,7 +5500,7 @@
       <c r="F119" t="s">
         <v>51</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" t="s">
         <v>47</v>
       </c>
       <c r="I119" t="s">
@@ -5535,7 +5532,7 @@
       <c r="F120" t="s">
         <v>51</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="H120" t="s">
         <v>47</v>
       </c>
       <c r="I120" t="s">
@@ -5567,7 +5564,7 @@
       <c r="F121" t="s">
         <v>51</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H121" t="s">
         <v>47</v>
       </c>
       <c r="I121" t="s">
@@ -5599,7 +5596,7 @@
       <c r="F122" t="s">
         <v>51</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" t="s">
         <v>47</v>
       </c>
       <c r="I122" t="s">
@@ -5634,7 +5631,7 @@
       <c r="G123" t="s">
         <v>52</v>
       </c>
-      <c r="H123" s="13" t="s">
+      <c r="H123" t="s">
         <v>310</v>
       </c>
       <c r="I123" t="s">
@@ -5666,7 +5663,6 @@
       <c r="G124" t="s">
         <v>330</v>
       </c>
-      <c r="H124" s="13"/>
       <c r="I124" t="s">
         <v>27</v>
       </c>
@@ -5684,7 +5680,7 @@
       <c r="B125" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" t="s">
         <v>331</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -5696,7 +5692,6 @@
       <c r="F125" t="s">
         <v>332</v>
       </c>
-      <c r="H125" s="13"/>
       <c r="I125" t="s">
         <v>27</v>
       </c>
@@ -5714,7 +5709,7 @@
       <c r="B126" t="s">
         <v>375</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" t="s">
         <v>351</v>
       </c>
       <c r="D126" s="11" t="s">
@@ -5729,7 +5724,6 @@
       <c r="G126" t="s">
         <v>83</v>
       </c>
-      <c r="H126" s="13"/>
       <c r="I126" t="s">
         <v>27</v>
       </c>
@@ -5747,7 +5741,7 @@
       <c r="B127" t="s">
         <v>375</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" t="s">
         <v>352</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -5762,7 +5756,6 @@
       <c r="G127" t="s">
         <v>83</v>
       </c>
-      <c r="H127" s="13"/>
       <c r="I127" t="s">
         <v>27</v>
       </c>
@@ -5780,7 +5773,7 @@
       <c r="B128" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" t="s">
         <v>353</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -5795,7 +5788,6 @@
       <c r="G128" t="s">
         <v>83</v>
       </c>
-      <c r="H128" s="13"/>
       <c r="I128" t="s">
         <v>27</v>
       </c>
@@ -5813,7 +5805,7 @@
       <c r="B129" t="s">
         <v>375</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" t="s">
         <v>354</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -5828,7 +5820,6 @@
       <c r="G129" t="s">
         <v>83</v>
       </c>
-      <c r="H129" s="13"/>
       <c r="I129" t="s">
         <v>27</v>
       </c>
@@ -5846,7 +5837,7 @@
       <c r="B130" t="s">
         <v>375</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" t="s">
         <v>355</v>
       </c>
       <c r="D130" s="11" t="s">
@@ -5861,7 +5852,6 @@
       <c r="G130" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="13"/>
       <c r="I130" t="s">
         <v>27</v>
       </c>
@@ -5879,7 +5869,7 @@
       <c r="B131" t="s">
         <v>375</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" t="s">
         <v>356</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -5894,7 +5884,6 @@
       <c r="G131" t="s">
         <v>83</v>
       </c>
-      <c r="H131" s="13"/>
       <c r="I131" t="s">
         <v>27</v>
       </c>
@@ -5912,7 +5901,7 @@
       <c r="B132" t="s">
         <v>375</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" t="s">
         <v>357</v>
       </c>
       <c r="D132" s="11" t="s">
@@ -5927,7 +5916,6 @@
       <c r="G132" t="s">
         <v>83</v>
       </c>
-      <c r="H132" s="13"/>
       <c r="I132" t="s">
         <v>27</v>
       </c>
@@ -5945,7 +5933,7 @@
       <c r="B133" t="s">
         <v>375</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" t="s">
         <v>358</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -5960,7 +5948,6 @@
       <c r="G133" t="s">
         <v>83</v>
       </c>
-      <c r="H133" s="13"/>
       <c r="I133" t="s">
         <v>27</v>
       </c>
@@ -5978,7 +5965,7 @@
       <c r="B134" t="s">
         <v>375</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" t="s">
         <v>359</v>
       </c>
       <c r="D134" s="11" t="s">
@@ -5993,7 +5980,6 @@
       <c r="G134" t="s">
         <v>83</v>
       </c>
-      <c r="H134" s="13"/>
       <c r="I134" t="s">
         <v>27</v>
       </c>
@@ -6011,7 +5997,7 @@
       <c r="B135" t="s">
         <v>375</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" t="s">
         <v>360</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -6026,7 +6012,6 @@
       <c r="G135" t="s">
         <v>83</v>
       </c>
-      <c r="H135" s="13"/>
       <c r="I135" t="s">
         <v>27</v>
       </c>
@@ -6044,7 +6029,7 @@
       <c r="B136" t="s">
         <v>375</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" t="s">
         <v>361</v>
       </c>
       <c r="D136" s="11" t="s">
@@ -6059,7 +6044,6 @@
       <c r="G136" t="s">
         <v>83</v>
       </c>
-      <c r="H136" s="13"/>
       <c r="I136" t="s">
         <v>27</v>
       </c>
@@ -6077,7 +6061,7 @@
       <c r="B137" t="s">
         <v>375</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" t="s">
         <v>362</v>
       </c>
       <c r="D137" s="11" t="s">
@@ -6092,7 +6076,6 @@
       <c r="G137" t="s">
         <v>83</v>
       </c>
-      <c r="H137" s="13"/>
       <c r="I137" t="s">
         <v>27</v>
       </c>
@@ -6110,7 +6093,6 @@
       <c r="B138" t="s">
         <v>374</v>
       </c>
-      <c r="C138" s="13"/>
       <c r="D138" s="11" t="s">
         <v>299</v>
       </c>
@@ -6123,7 +6105,7 @@
       <c r="G138" t="s">
         <v>330</v>
       </c>
-      <c r="H138" s="13" t="s">
+      <c r="H138" t="s">
         <v>377</v>
       </c>
       <c r="I138" t="s">
@@ -6143,7 +6125,7 @@
       <c r="B139" t="s">
         <v>374</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" t="s">
         <v>378</v>
       </c>
       <c r="D139" s="11" t="s">
@@ -6158,15 +6140,6 @@
       <c r="G139" t="s">
         <v>83</v>
       </c>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="C140" s="13"/>
-      <c r="H140" s="13"/>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="C141" s="13"/>
-      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="11">
@@ -6184,7 +6157,6 @@
       <c r="E142" s="11">
         <v>0</v>
       </c>
-      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="11">
@@ -6202,7 +6174,6 @@
       <c r="E143" s="11">
         <v>0</v>
       </c>
-      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="11">
@@ -6220,12 +6191,8 @@
       <c r="E144" s="11">
         <v>0</v>
       </c>
-      <c r="H144" s="13"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="H145" s="13"/>
-    </row>
-    <row r="146" spans="1:8">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="11">
         <v>1</v>
       </c>
@@ -6238,42 +6205,8 @@
       <c r="E146" s="11">
         <v>0</v>
       </c>
-      <c r="H146" s="13"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="H147" s="13"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="H148" s="13"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="H149" s="13"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="H150" s="13"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="H151" s="13"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="H152" s="13"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="H153" s="13"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="H154" s="13"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="H155" s="13"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="H156" s="13"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="H157" s="13"/>
-    </row>
-    <row r="159" spans="1:8">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="11">
         <v>0</v>
       </c>
@@ -6281,7 +6214,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:5">
       <c r="A160" s="11">
         <v>0</v>
       </c>
@@ -6786,7 +6719,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB45C595-6C14-438B-8741-63E41F265835}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B13"/>
@@ -6831,7 +6764,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" t="s">
         <v>335</v>
       </c>
       <c r="B3" t="str">
@@ -6848,7 +6781,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
         <v>336</v>
       </c>
       <c r="B4" t="str">
@@ -6865,7 +6798,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" t="s">
         <v>337</v>
       </c>
       <c r="B5" t="str">
@@ -6882,7 +6815,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>338</v>
       </c>
       <c r="B6" t="str">
@@ -6899,7 +6832,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>339</v>
       </c>
       <c r="B7" t="str">
@@ -6916,7 +6849,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>340</v>
       </c>
       <c r="B8" t="str">
@@ -6933,7 +6866,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>341</v>
       </c>
       <c r="B9" t="str">
@@ -6950,7 +6883,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>342</v>
       </c>
       <c r="B10" t="str">
@@ -6967,7 +6900,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>343</v>
       </c>
       <c r="B11" t="str">
@@ -6984,7 +6917,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>344</v>
       </c>
       <c r="B12" t="str">
@@ -7001,7 +6934,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" t="s">
         <v>345</v>
       </c>
       <c r="B13" t="str">
@@ -7016,12 +6949,6 @@
         <f t="shared" si="0"/>
         <v>양강도인민회</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5635E28-3740-4DB7-AC23-C40830CD19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901993D1-CC6B-4EA6-BADC-F66F330D0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="609">
   <si>
     <t>InsideGov</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>당중앙위원회_선전선동부_로동신문사</t>
-  </si>
-  <si>
-    <t>1.1.4.203.0</t>
   </si>
   <si>
     <t>1.1.4.204.0</t>
@@ -2215,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S220"/>
+  <dimension ref="A1:S219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2721,6 +2718,9 @@
       <c r="K11" t="s">
         <v>23</v>
       </c>
+      <c r="L11" t="s">
+        <v>204</v>
+      </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>197</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
@@ -2745,10 +2745,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -2762,9 +2762,6 @@
       <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" t="s">
-        <v>205</v>
-      </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>197</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
@@ -2789,10 +2786,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -2816,7 +2813,7 @@
         <v>197</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13" t="s">
         <v>24</v>
@@ -2830,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2857,10 +2854,10 @@
         <v>197</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2871,13 +2868,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
@@ -2898,10 +2895,10 @@
         <v>197</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2912,13 +2909,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -2936,10 +2936,10 @@
         <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
@@ -2953,10 +2953,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2964,6 +2964,9 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="P17" t="s">
         <v>24</v>
@@ -2997,10 +3000,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3008,9 +3011,6 @@
       <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
       <c r="I18" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P18" t="s">
         <v>24</v>
@@ -3044,10 +3044,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3055,6 +3055,9 @@
       <c r="F19" t="s">
         <v>35</v>
       </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
       <c r="I19" t="s">
         <v>23</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P19" t="s">
         <v>24</v>
@@ -3088,10 +3091,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3100,7 +3103,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
@@ -3118,7 +3121,7 @@
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P20" t="s">
         <v>24</v>
@@ -3135,10 +3138,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3165,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
         <v>24</v>
@@ -3182,19 +3185,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
@@ -3215,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="s">
         <v>24</v>
@@ -3229,22 +3235,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
@@ -3262,10 +3262,10 @@
         <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
@@ -3279,10 +3279,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3306,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
         <v>24</v>
@@ -3323,10 +3323,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3334,6 +3334,9 @@
       <c r="F25" t="s">
         <v>35</v>
       </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
       <c r="I25" t="s">
         <v>23</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>19</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
         <v>24</v>
@@ -3367,10 +3370,10 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3379,7 +3382,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
@@ -3397,7 +3400,7 @@
         <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P26" t="s">
         <v>24</v>
@@ -3414,19 +3417,19 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
@@ -3444,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s">
         <v>24</v>
@@ -3461,19 +3464,16 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
@@ -3491,7 +3491,7 @@
         <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s">
         <v>24</v>
@@ -3508,16 +3508,16 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
@@ -3535,13 +3535,16 @@
         <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s">
         <v>24</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
+      </c>
+      <c r="S29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -3552,10 +3555,10 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -3579,16 +3582,13 @@
         <v>19</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s">
         <v>24</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
-      </c>
-      <c r="S30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -3599,10 +3599,10 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>19</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
@@ -3643,10 +3643,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -3654,6 +3654,9 @@
       <c r="F32" t="s">
         <v>35</v>
       </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
       <c r="I32" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P32" t="s">
         <v>24</v>
@@ -3687,10 +3690,10 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3699,7 +3702,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -3717,7 +3720,7 @@
         <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s">
         <v>24</v>
@@ -3734,10 +3737,10 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -3764,7 +3767,7 @@
         <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s">
         <v>24</v>
@@ -3781,19 +3784,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -3814,7 +3811,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q35" t="s">
         <v>24</v>
@@ -3828,10 +3825,10 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3855,7 +3852,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q36" t="s">
         <v>24</v>
@@ -3869,10 +3866,10 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -3896,7 +3893,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q37" t="s">
         <v>24</v>
@@ -3910,22 +3907,28 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
@@ -3937,7 +3940,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q38" t="s">
         <v>24</v>
@@ -3951,28 +3954,25 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
@@ -3981,10 +3981,10 @@
         <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
         <v>24</v>
@@ -3998,16 +3998,19 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -4025,13 +4028,16 @@
         <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P40" t="s">
         <v>24</v>
       </c>
       <c r="Q40" t="s">
         <v>24</v>
+      </c>
+      <c r="R40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -4042,7 +4048,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
@@ -4051,10 +4057,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -4080,9 +4083,6 @@
       <c r="Q41" t="s">
         <v>24</v>
       </c>
-      <c r="R41" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -4092,16 +4092,22 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -4119,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P42" t="s">
         <v>24</v>
@@ -4136,22 +4142,13 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="I43" t="s">
         <v>23</v>
@@ -4172,7 +4169,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q43" t="s">
         <v>24</v>
@@ -4186,13 +4183,19 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
@@ -4210,10 +4213,10 @@
         <v>19</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
         <v>24</v>
@@ -4227,13 +4230,13 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>112</v>
@@ -4260,7 +4263,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q45" t="s">
         <v>24</v>
@@ -4274,10 +4277,10 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -4307,7 +4310,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q46" t="s">
         <v>24</v>
@@ -4321,10 +4324,10 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -4354,7 +4357,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q47" t="s">
         <v>24</v>
@@ -4368,13 +4371,13 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>112</v>
@@ -4398,10 +4401,10 @@
         <v>19</v>
       </c>
       <c r="O48" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P48" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="s">
         <v>24</v>
@@ -4415,10 +4418,10 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -4445,7 +4448,7 @@
         <v>19</v>
       </c>
       <c r="O49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
@@ -4462,10 +4465,10 @@
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -4492,7 +4495,7 @@
         <v>19</v>
       </c>
       <c r="O50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
@@ -4509,13 +4512,13 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>112</v>
@@ -4542,7 +4545,7 @@
         <v>134</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q51" t="s">
         <v>24</v>
@@ -4556,10 +4559,10 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -4589,7 +4592,7 @@
         <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q52" t="s">
         <v>24</v>
@@ -4603,13 +4606,13 @@
         <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>112</v>
@@ -4633,10 +4636,10 @@
         <v>19</v>
       </c>
       <c r="O53" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P53" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
@@ -4650,10 +4653,10 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -4680,7 +4683,7 @@
         <v>19</v>
       </c>
       <c r="O54" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
@@ -4697,13 +4700,13 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>112</v>
@@ -4730,7 +4733,7 @@
         <v>150</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q55" t="s">
         <v>24</v>
@@ -4744,13 +4747,13 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>112</v>
@@ -4774,10 +4777,10 @@
         <v>19</v>
       </c>
       <c r="O56" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P56" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q56" t="s">
         <v>24</v>
@@ -4791,19 +4794,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
@@ -4824,7 +4821,7 @@
         <v>155</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -4838,10 +4835,10 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -4865,7 +4862,7 @@
         <v>155</v>
       </c>
       <c r="P58" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q58" t="s">
         <v>24</v>
@@ -4879,10 +4876,10 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -4906,7 +4903,7 @@
         <v>155</v>
       </c>
       <c r="P59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q59" t="s">
         <v>24</v>
@@ -4920,13 +4917,19 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
@@ -4944,10 +4947,10 @@
         <v>19</v>
       </c>
       <c r="O60" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P60" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="Q60" t="s">
         <v>24</v>
@@ -4961,19 +4964,13 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
@@ -4994,7 +4991,7 @@
         <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q61" t="s">
         <v>24</v>
@@ -5008,13 +5005,13 @@
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
@@ -5035,10 +5032,10 @@
         <v>164</v>
       </c>
       <c r="P62" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62" t="s">
         <v>42</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -5049,13 +5046,19 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
       </c>
       <c r="I63" t="s">
         <v>23</v>
@@ -5073,13 +5076,13 @@
         <v>19</v>
       </c>
       <c r="O63" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P63" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="Q63" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -5090,13 +5093,13 @@
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
@@ -5123,7 +5126,7 @@
         <v>171</v>
       </c>
       <c r="P64" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q64" t="s">
         <v>24</v>
@@ -5137,13 +5140,13 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>112</v>
@@ -5167,10 +5170,10 @@
         <v>19</v>
       </c>
       <c r="O65" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P65" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q65" t="s">
         <v>24</v>
@@ -5184,13 +5187,13 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>112</v>
@@ -5217,7 +5220,7 @@
         <v>176</v>
       </c>
       <c r="P66" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q66" t="s">
         <v>24</v>
@@ -5231,10 +5234,10 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -5264,7 +5267,7 @@
         <v>176</v>
       </c>
       <c r="P67" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q67" t="s">
         <v>24</v>
@@ -5278,13 +5281,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>112</v>
@@ -5308,10 +5311,10 @@
         <v>19</v>
       </c>
       <c r="O68" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P68" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="Q68" t="s">
         <v>24</v>
@@ -5325,13 +5328,13 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>112</v>
@@ -5358,7 +5361,7 @@
         <v>183</v>
       </c>
       <c r="P69" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q69" t="s">
         <v>24</v>
@@ -5372,10 +5375,10 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -5405,7 +5408,7 @@
         <v>183</v>
       </c>
       <c r="P70" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
@@ -5419,10 +5422,10 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -5434,13 +5437,13 @@
         <v>79</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="M71" t="s">
         <v>19</v>
@@ -5452,7 +5455,7 @@
         <v>183</v>
       </c>
       <c r="P71" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q71" t="s">
         <v>24</v>
@@ -5466,13 +5469,13 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>112</v>
@@ -5481,13 +5484,13 @@
         <v>79</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
         <v>19</v>
@@ -5496,10 +5499,10 @@
         <v>19</v>
       </c>
       <c r="O72" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P72" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="s">
         <v>24</v>
@@ -5513,28 +5516,28 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M73" t="s">
         <v>19</v>
@@ -5543,7 +5546,7 @@
         <v>19</v>
       </c>
       <c r="O73" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="P73" t="s">
         <v>24</v>
@@ -5560,10 +5563,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -5575,10 +5578,10 @@
         <v>36</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K74" t="s">
         <v>100</v>
@@ -5590,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="O74" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="P74" t="s">
         <v>24</v>
@@ -5607,10 +5610,10 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -5622,10 +5625,10 @@
         <v>36</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K75" t="s">
         <v>100</v>
@@ -5637,7 +5640,7 @@
         <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P75" t="s">
         <v>24</v>
@@ -5654,10 +5657,10 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -5669,10 +5672,10 @@
         <v>36</v>
       </c>
       <c r="I76" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="K76" t="s">
         <v>100</v>
@@ -5684,7 +5687,7 @@
         <v>19</v>
       </c>
       <c r="O76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P76" t="s">
         <v>24</v>
@@ -5701,10 +5704,10 @@
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -5719,7 +5722,7 @@
         <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K77" t="s">
         <v>100</v>
@@ -5731,7 +5734,7 @@
         <v>19</v>
       </c>
       <c r="O77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P77" t="s">
         <v>24</v>
@@ -5748,10 +5751,10 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -5763,10 +5766,10 @@
         <v>36</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J78" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s">
         <v>100</v>
@@ -5778,7 +5781,7 @@
         <v>19</v>
       </c>
       <c r="O78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P78" t="s">
         <v>24</v>
@@ -5795,19 +5798,22 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="H79" t="s">
+        <v>79</v>
       </c>
       <c r="I79" t="s">
         <v>100</v>
@@ -5818,6 +5824,9 @@
       <c r="K79" t="s">
         <v>100</v>
       </c>
+      <c r="L79" t="s">
+        <v>240</v>
+      </c>
       <c r="M79" t="s">
         <v>19</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>19</v>
       </c>
       <c r="O79" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P79" t="s">
         <v>24</v>
@@ -5842,35 +5851,29 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="J80" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="K80" t="s">
         <v>100</v>
       </c>
-      <c r="L80" t="s">
-        <v>241</v>
-      </c>
       <c r="M80" t="s">
         <v>19</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="O80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P80" t="s">
         <v>24</v>
@@ -5887,7 +5890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5895,10 +5898,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -5910,10 +5913,10 @@
         <v>36</v>
       </c>
       <c r="I81" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="J81" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K81" t="s">
         <v>100</v>
@@ -5925,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="O81" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P81" t="s">
         <v>24</v>
@@ -5934,7 +5937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5942,10 +5945,10 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -5957,10 +5960,10 @@
         <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="K82" t="s">
         <v>100</v>
@@ -5972,7 +5975,7 @@
         <v>19</v>
       </c>
       <c r="O82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P82" t="s">
         <v>24</v>
@@ -5981,7 +5984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5989,10 +5992,10 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -6019,7 +6022,7 @@
         <v>19</v>
       </c>
       <c r="O83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P83" t="s">
         <v>24</v>
@@ -6028,7 +6031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6036,10 +6039,10 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6051,10 +6054,10 @@
         <v>36</v>
       </c>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="K84" t="s">
         <v>100</v>
@@ -6066,7 +6069,7 @@
         <v>19</v>
       </c>
       <c r="O84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P84" t="s">
         <v>24</v>
@@ -6075,7 +6078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -6083,28 +6086,28 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="I85" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K85" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="M85" t="s">
         <v>19</v>
@@ -6113,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="O85" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
@@ -6122,7 +6125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -6130,28 +6133,28 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="I86" t="s">
         <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="K86" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M86" t="s">
         <v>19</v>
@@ -6160,7 +6163,7 @@
         <v>19</v>
       </c>
       <c r="O86" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P86" t="s">
         <v>24</v>
@@ -6169,7 +6172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6177,10 +6180,10 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -6195,10 +6198,10 @@
         <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="K87" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M87" t="s">
         <v>19</v>
@@ -6207,7 +6210,7 @@
         <v>19</v>
       </c>
       <c r="O87" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P87" t="s">
         <v>24</v>
@@ -6216,7 +6219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -6224,28 +6227,25 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I88" t="s">
         <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="K88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M88" t="s">
         <v>19</v>
@@ -6254,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="O88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P88" t="s">
         <v>24</v>
@@ -6263,7 +6263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -6271,25 +6271,28 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="J89" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="K89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M89" t="s">
         <v>19</v>
@@ -6298,7 +6301,7 @@
         <v>19</v>
       </c>
       <c r="O89" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P89" t="s">
         <v>24</v>
@@ -6307,7 +6310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -6315,28 +6318,31 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H90" t="s">
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="J90" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="K90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M90" t="s">
         <v>19</v>
@@ -6345,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="O90" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P90" t="s">
         <v>24</v>
@@ -6354,7 +6360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -6362,10 +6368,10 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6380,13 +6386,13 @@
         <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J91" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K91" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M91" t="s">
         <v>19</v>
@@ -6395,7 +6401,7 @@
         <v>19</v>
       </c>
       <c r="O91" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P91" t="s">
         <v>24</v>
@@ -6404,7 +6410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -6412,63 +6418,63 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D92" t="s">
-        <v>290</v>
+        <v>608</v>
       </c>
       <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I92" t="s">
+        <v>284</v>
+      </c>
+      <c r="J92" t="s">
+        <v>294</v>
+      </c>
+      <c r="K92" t="s">
+        <v>291</v>
+      </c>
+      <c r="L92" t="s">
+        <v>295</v>
+      </c>
+      <c r="M92" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" t="s">
+        <v>19</v>
+      </c>
+      <c r="O92" t="s">
+        <v>292</v>
+      </c>
+      <c r="P92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93">
         <v>2</v>
-      </c>
-      <c r="F92" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" t="s">
-        <v>285</v>
-      </c>
-      <c r="J92" t="s">
-        <v>291</v>
-      </c>
-      <c r="K92" t="s">
-        <v>292</v>
-      </c>
-      <c r="M92" t="s">
-        <v>19</v>
-      </c>
-      <c r="N92" t="s">
-        <v>19</v>
-      </c>
-      <c r="O92" t="s">
-        <v>293</v>
-      </c>
-      <c r="P92" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>19</v>
-      </c>
-      <c r="B93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" t="s">
-        <v>294</v>
-      </c>
-      <c r="D93" t="s">
-        <v>609</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>35</v>
@@ -6477,16 +6483,13 @@
         <v>36</v>
       </c>
       <c r="I93" t="s">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K93" t="s">
-        <v>292</v>
-      </c>
-      <c r="L93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M93" t="s">
         <v>19</v>
@@ -6495,16 +6498,16 @@
         <v>19</v>
       </c>
       <c r="O93" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P93" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="Q93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -6512,10 +6515,10 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -6530,10 +6533,10 @@
         <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="K94" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M94" t="s">
         <v>19</v>
@@ -6542,7 +6545,7 @@
         <v>19</v>
       </c>
       <c r="O94" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P94" t="s">
         <v>24</v>
@@ -6551,7 +6554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6559,10 +6562,10 @@
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -6577,10 +6580,10 @@
         <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s">
         <v>19</v>
@@ -6589,7 +6592,7 @@
         <v>19</v>
       </c>
       <c r="O95" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P95" t="s">
         <v>24</v>
@@ -6598,7 +6601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -6606,28 +6609,34 @@
         <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D96" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H96" t="s">
+        <v>321</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>307</v>
+        <v>23</v>
+      </c>
+      <c r="L96" t="s">
+        <v>322</v>
       </c>
       <c r="M96" t="s">
         <v>19</v>
@@ -6636,7 +6645,7 @@
         <v>19</v>
       </c>
       <c r="O96" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P96" t="s">
         <v>24</v>
@@ -6644,8 +6653,11 @@
       <c r="Q96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R96" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -6653,10 +6665,10 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" t="s">
         <v>320</v>
-      </c>
-      <c r="D97" t="s">
-        <v>321</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -6668,7 +6680,7 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I97" t="s">
         <v>23</v>
@@ -6679,29 +6691,23 @@
       <c r="K97" t="s">
         <v>23</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" t="s">
+        <v>19</v>
+      </c>
+      <c r="O97" t="s">
         <v>323</v>
       </c>
-      <c r="M97" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" t="s">
-        <v>19</v>
-      </c>
-      <c r="O97" t="s">
-        <v>324</v>
-      </c>
       <c r="P97" t="s">
         <v>24</v>
       </c>
       <c r="Q97" t="s">
         <v>24</v>
       </c>
-      <c r="R97" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -6712,28 +6718,19 @@
         <v>326</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
-      <c r="F98" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" t="s">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s">
-        <v>322</v>
-      </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="K98" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="M98" t="s">
         <v>19</v>
@@ -6742,7 +6739,7 @@
         <v>19</v>
       </c>
       <c r="O98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P98" t="s">
         <v>24</v>
@@ -6751,7 +6748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -6759,22 +6756,22 @@
         <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>329</v>
+        <v>23</v>
       </c>
       <c r="M99" t="s">
         <v>19</v>
@@ -6783,7 +6780,7 @@
         <v>19</v>
       </c>
       <c r="O99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P99" t="s">
         <v>24</v>
@@ -6792,7 +6789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -6803,7 +6800,7 @@
         <v>330</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -6824,7 +6821,7 @@
         <v>19</v>
       </c>
       <c r="O100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P100" t="s">
         <v>24</v>
@@ -6833,7 +6830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -6844,7 +6841,7 @@
         <v>331</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -6865,7 +6862,7 @@
         <v>19</v>
       </c>
       <c r="O101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P101" t="s">
         <v>24</v>
@@ -6874,7 +6871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -6885,10 +6882,10 @@
         <v>332</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
         <v>23</v>
@@ -6906,16 +6903,16 @@
         <v>19</v>
       </c>
       <c r="O102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P102" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="Q102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -6923,10 +6920,10 @@
         <v>20</v>
       </c>
       <c r="C103" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" t="s">
         <v>333</v>
-      </c>
-      <c r="D103" t="s">
-        <v>334</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -6947,16 +6944,16 @@
         <v>19</v>
       </c>
       <c r="O103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q103" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -6967,7 +6964,7 @@
         <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -6988,16 +6985,16 @@
         <v>19</v>
       </c>
       <c r="O104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q104" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -7008,10 +7005,19 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s">
+        <v>31</v>
       </c>
       <c r="I105" t="s">
         <v>23</v>
@@ -7026,19 +7032,19 @@
         <v>19</v>
       </c>
       <c r="N105" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O105" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="P105" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="Q105" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -7046,10 +7052,10 @@
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -7076,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="N106" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O106" t="s">
         <v>24</v>
@@ -7088,7 +7094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -7096,37 +7102,37 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
-      </c>
-      <c r="H107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="L107" t="s">
+        <v>240</v>
       </c>
       <c r="M107" t="s">
         <v>19</v>
       </c>
       <c r="N107" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="O107" t="s">
         <v>24</v>
@@ -7138,7 +7144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D108" t="s">
         <v>342</v>
@@ -7155,28 +7161,28 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>344</v>
       </c>
       <c r="I108" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="M108" t="s">
         <v>19</v>
       </c>
       <c r="N108" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="O108" t="s">
         <v>24</v>
@@ -7188,7 +7194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -7196,20 +7202,14 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D109" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="F109" t="s">
-        <v>344</v>
-      </c>
-      <c r="G109" t="s">
-        <v>345</v>
-      </c>
       <c r="I109" t="s">
         <v>23</v>
       </c>
@@ -7219,14 +7219,11 @@
       <c r="K109" t="s">
         <v>23</v>
       </c>
-      <c r="L109" t="s">
-        <v>346</v>
-      </c>
       <c r="M109" t="s">
         <v>19</v>
       </c>
       <c r="N109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
@@ -7238,7 +7235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -7249,25 +7246,34 @@
         <v>347</v>
       </c>
       <c r="D110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
+      <c r="F110" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="L110" t="s">
+        <v>240</v>
       </c>
       <c r="M110" t="s">
         <v>19</v>
       </c>
       <c r="N110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
@@ -7279,7 +7285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7287,13 +7293,13 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
         <v>35</v>
@@ -7302,25 +7308,25 @@
         <v>36</v>
       </c>
       <c r="I111" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="J111" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K111" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="L111" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="M111" t="s">
         <v>19</v>
       </c>
       <c r="N111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="P111" t="s">
         <v>24</v>
@@ -7329,7 +7335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -7337,43 +7343,40 @@
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
+        <v>356</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>261</v>
+      </c>
+      <c r="G112" t="s">
+        <v>262</v>
+      </c>
+      <c r="I112" t="s">
         <v>351</v>
       </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-      <c r="I112" t="s">
-        <v>352</v>
-      </c>
       <c r="J112" t="s">
+        <v>357</v>
+      </c>
+      <c r="K112" t="s">
         <v>353</v>
       </c>
-      <c r="K112" t="s">
-        <v>354</v>
-      </c>
-      <c r="L112" t="s">
-        <v>355</v>
-      </c>
       <c r="M112" t="s">
         <v>19</v>
       </c>
       <c r="N112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O112" t="s">
         <v>101</v>
       </c>
       <c r="P112" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="Q112" t="s">
         <v>24</v>
@@ -7387,40 +7390,40 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D113" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113" t="s">
+        <v>261</v>
+      </c>
+      <c r="G113" t="s">
         <v>262</v>
       </c>
-      <c r="G113" t="s">
-        <v>263</v>
-      </c>
       <c r="I113" t="s">
+        <v>351</v>
+      </c>
+      <c r="J113" t="s">
         <v>352</v>
       </c>
-      <c r="J113" t="s">
-        <v>358</v>
-      </c>
       <c r="K113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M113" t="s">
         <v>19</v>
       </c>
       <c r="N113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O113" t="s">
         <v>101</v>
       </c>
       <c r="P113" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="Q113" t="s">
         <v>24</v>
@@ -7434,40 +7437,40 @@
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
       <c r="F114" t="s">
+        <v>261</v>
+      </c>
+      <c r="G114" t="s">
         <v>262</v>
       </c>
-      <c r="G114" t="s">
-        <v>263</v>
-      </c>
       <c r="I114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J114" t="s">
+        <v>362</v>
+      </c>
+      <c r="K114" t="s">
         <v>353</v>
       </c>
-      <c r="K114" t="s">
-        <v>354</v>
-      </c>
       <c r="M114" t="s">
         <v>19</v>
       </c>
       <c r="N114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O114" t="s">
         <v>101</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q114" t="s">
         <v>24</v>
@@ -7478,43 +7481,43 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>263</v>
+        <v>370</v>
+      </c>
+      <c r="H115" t="s">
+        <v>31</v>
       </c>
       <c r="I115" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>354</v>
+        <v>23</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="N115" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="O115" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="Q115" t="s">
         <v>24</v>
@@ -7525,22 +7528,22 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="C116" t="s">
+        <v>371</v>
       </c>
       <c r="D116" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="G116" t="s">
-        <v>371</v>
-      </c>
-      <c r="H116" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="I116" t="s">
         <v>23</v>
@@ -7555,7 +7558,7 @@
         <v>80</v>
       </c>
       <c r="N116" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
@@ -7572,22 +7575,22 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
+        <v>373</v>
+      </c>
+      <c r="D117" t="s">
         <v>372</v>
-      </c>
-      <c r="D117" t="s">
-        <v>373</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="G117" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="I117" t="s">
         <v>23</v>
@@ -7619,22 +7622,22 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G118" t="s">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="I118" t="s">
         <v>23</v>
@@ -7649,7 +7652,7 @@
         <v>80</v>
       </c>
       <c r="N118" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
@@ -7666,22 +7669,22 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C119" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" t="s">
         <v>377</v>
-      </c>
-      <c r="D119" t="s">
-        <v>378</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
+        <v>261</v>
+      </c>
+      <c r="G119" t="s">
         <v>262</v>
-      </c>
-      <c r="G119" t="s">
-        <v>263</v>
       </c>
       <c r="I119" t="s">
         <v>23</v>
@@ -7713,22 +7716,22 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C120" t="s">
         <v>379</v>
       </c>
       <c r="D120" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="G120" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
@@ -7743,7 +7746,7 @@
         <v>80</v>
       </c>
       <c r="N120" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O120" t="s">
         <v>24</v>
@@ -7760,22 +7763,22 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C121" t="s">
+        <v>381</v>
+      </c>
+      <c r="D121" t="s">
         <v>380</v>
-      </c>
-      <c r="D121" t="s">
-        <v>381</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G121" t="s">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="I121" t="s">
         <v>23</v>
@@ -7807,22 +7810,22 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C122" t="s">
         <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" t="s">
+        <v>261</v>
+      </c>
+      <c r="G122" t="s">
         <v>262</v>
-      </c>
-      <c r="G122" t="s">
-        <v>263</v>
       </c>
       <c r="I122" t="s">
         <v>23</v>
@@ -7840,7 +7843,7 @@
         <v>141</v>
       </c>
       <c r="O122" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P122" t="s">
         <v>24</v>
@@ -7854,22 +7857,19 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C123" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>262</v>
-      </c>
-      <c r="G123" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="I123" t="s">
         <v>23</v>
@@ -7887,7 +7887,7 @@
         <v>141</v>
       </c>
       <c r="O123" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="P123" t="s">
         <v>24</v>
@@ -7901,19 +7901,22 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C124" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>389</v>
+        <v>261</v>
+      </c>
+      <c r="G124" t="s">
+        <v>262</v>
       </c>
       <c r="I124" t="s">
         <v>23</v>
@@ -7931,7 +7934,7 @@
         <v>141</v>
       </c>
       <c r="O124" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="P124" t="s">
         <v>24</v>
@@ -7945,22 +7948,22 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D125" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
+        <v>261</v>
+      </c>
+      <c r="G125" t="s">
         <v>262</v>
-      </c>
-      <c r="G125" t="s">
-        <v>263</v>
       </c>
       <c r="I125" t="s">
         <v>23</v>
@@ -7978,7 +7981,7 @@
         <v>141</v>
       </c>
       <c r="O125" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="P125" t="s">
         <v>24</v>
@@ -7992,22 +7995,22 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D126" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126" t="s">
+        <v>261</v>
+      </c>
+      <c r="G126" t="s">
         <v>262</v>
-      </c>
-      <c r="G126" t="s">
-        <v>263</v>
       </c>
       <c r="I126" t="s">
         <v>23</v>
@@ -8025,7 +8028,7 @@
         <v>141</v>
       </c>
       <c r="O126" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P126" t="s">
         <v>24</v>
@@ -8039,22 +8042,22 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D127" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" t="s">
+        <v>261</v>
+      </c>
+      <c r="G127" t="s">
         <v>262</v>
-      </c>
-      <c r="G127" t="s">
-        <v>263</v>
       </c>
       <c r="I127" t="s">
         <v>23</v>
@@ -8072,7 +8075,7 @@
         <v>141</v>
       </c>
       <c r="O127" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="P127" t="s">
         <v>24</v>
@@ -8086,22 +8089,22 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D128" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128" t="s">
+        <v>261</v>
+      </c>
+      <c r="G128" t="s">
         <v>262</v>
-      </c>
-      <c r="G128" t="s">
-        <v>263</v>
       </c>
       <c r="I128" t="s">
         <v>23</v>
@@ -8119,7 +8122,7 @@
         <v>141</v>
       </c>
       <c r="O128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P128" t="s">
         <v>24</v>
@@ -8133,22 +8136,22 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D129" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129" t="s">
+        <v>261</v>
+      </c>
+      <c r="G129" t="s">
         <v>262</v>
-      </c>
-      <c r="G129" t="s">
-        <v>263</v>
       </c>
       <c r="I129" t="s">
         <v>23</v>
@@ -8166,7 +8169,7 @@
         <v>141</v>
       </c>
       <c r="O129" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P129" t="s">
         <v>24</v>
@@ -8180,22 +8183,22 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
+        <v>261</v>
+      </c>
+      <c r="G130" t="s">
         <v>262</v>
-      </c>
-      <c r="G130" t="s">
-        <v>263</v>
       </c>
       <c r="I130" t="s">
         <v>23</v>
@@ -8213,7 +8216,7 @@
         <v>141</v>
       </c>
       <c r="O130" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P130" t="s">
         <v>24</v>
@@ -8227,22 +8230,22 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D131" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131" t="s">
+        <v>261</v>
+      </c>
+      <c r="G131" t="s">
         <v>262</v>
-      </c>
-      <c r="G131" t="s">
-        <v>263</v>
       </c>
       <c r="I131" t="s">
         <v>23</v>
@@ -8260,7 +8263,7 @@
         <v>141</v>
       </c>
       <c r="O131" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="P131" t="s">
         <v>24</v>
@@ -8274,22 +8277,22 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D132" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
+        <v>261</v>
+      </c>
+      <c r="G132" t="s">
         <v>262</v>
-      </c>
-      <c r="G132" t="s">
-        <v>263</v>
       </c>
       <c r="I132" t="s">
         <v>23</v>
@@ -8304,10 +8307,10 @@
         <v>80</v>
       </c>
       <c r="N132" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="O132" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P132" t="s">
         <v>24</v>
@@ -8321,22 +8324,19 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
-      </c>
-      <c r="G133" t="s">
-        <v>263</v>
+        <v>407</v>
       </c>
       <c r="I133" t="s">
         <v>23</v>
@@ -8351,7 +8351,7 @@
         <v>80</v>
       </c>
       <c r="N133" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O133" t="s">
         <v>24</v>
@@ -8368,19 +8368,25 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>408</v>
+        <v>374</v>
+      </c>
+      <c r="G134" t="s">
+        <v>375</v>
+      </c>
+      <c r="H134" t="s">
+        <v>410</v>
       </c>
       <c r="I134" t="s">
         <v>23</v>
@@ -8395,7 +8401,7 @@
         <v>80</v>
       </c>
       <c r="N134" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O134" t="s">
         <v>24</v>
@@ -8412,25 +8418,22 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D135" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G135" t="s">
-        <v>376</v>
-      </c>
-      <c r="H135" t="s">
-        <v>411</v>
+        <v>262</v>
       </c>
       <c r="I135" t="s">
         <v>23</v>
@@ -8445,10 +8448,10 @@
         <v>80</v>
       </c>
       <c r="N135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O135" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P135" t="s">
         <v>24</v>
@@ -8462,22 +8465,22 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
+        <v>261</v>
+      </c>
+      <c r="G136" t="s">
         <v>262</v>
-      </c>
-      <c r="G136" t="s">
-        <v>263</v>
       </c>
       <c r="I136" t="s">
         <v>23</v>
@@ -8492,10 +8495,10 @@
         <v>80</v>
       </c>
       <c r="N136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O136" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="P136" t="s">
         <v>24</v>
@@ -8509,22 +8512,22 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="G137" t="s">
-        <v>263</v>
+        <v>417</v>
       </c>
       <c r="I137" t="s">
         <v>23</v>
@@ -8539,10 +8542,10 @@
         <v>80</v>
       </c>
       <c r="N137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O137" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="P137" t="s">
         <v>24</v>
@@ -8556,22 +8559,22 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D138" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I138" t="s">
         <v>23</v>
@@ -8586,10 +8589,10 @@
         <v>80</v>
       </c>
       <c r="N138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O138" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="P138" t="s">
         <v>24</v>
@@ -8603,22 +8606,22 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D139" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I139" t="s">
         <v>23</v>
@@ -8633,10 +8636,10 @@
         <v>80</v>
       </c>
       <c r="N139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O139" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P139" t="s">
         <v>24</v>
@@ -8650,22 +8653,22 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G140" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I140" t="s">
         <v>23</v>
@@ -8680,10 +8683,10 @@
         <v>80</v>
       </c>
       <c r="N140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O140" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="P140" t="s">
         <v>24</v>
@@ -8697,22 +8700,22 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
-      </c>
-      <c r="C141" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
       <c r="D141" t="s">
         <v>424</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="G141" t="s">
-        <v>418</v>
+        <v>426</v>
+      </c>
+      <c r="H141" t="s">
+        <v>427</v>
       </c>
       <c r="I141" t="s">
         <v>23</v>
@@ -8724,13 +8727,13 @@
         <v>23</v>
       </c>
       <c r="M141" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="N141" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="O141" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="P141" t="s">
         <v>24</v>
@@ -8744,22 +8747,25 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>428</v>
       </c>
       <c r="D142" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G142" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="H142" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I142" t="s">
         <v>23</v>
@@ -8774,7 +8780,7 @@
         <v>141</v>
       </c>
       <c r="N142" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O142" t="s">
         <v>24</v>
@@ -8791,26 +8797,23 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="D143" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>431</v>
+        <v>261</v>
       </c>
       <c r="G143" t="s">
         <v>262</v>
       </c>
-      <c r="H143" t="s">
-        <v>432</v>
-      </c>
       <c r="I143" t="s">
         <v>23</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>141</v>
       </c>
       <c r="N143" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O143" t="s">
         <v>24</v>
@@ -8841,22 +8844,22 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="D144" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="I144" t="s">
         <v>23</v>
@@ -8871,7 +8874,7 @@
         <v>141</v>
       </c>
       <c r="N144" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O144" t="s">
         <v>24</v>
@@ -8888,13 +8891,13 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C145" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="D145" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8905,6 +8908,9 @@
       <c r="G145" t="s">
         <v>41</v>
       </c>
+      <c r="H145" t="s">
+        <v>261</v>
+      </c>
       <c r="I145" t="s">
         <v>23</v>
       </c>
@@ -8918,7 +8924,7 @@
         <v>141</v>
       </c>
       <c r="N145" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="O145" t="s">
         <v>24</v>
@@ -8935,13 +8941,13 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
         <v>285</v>
       </c>
-      <c r="C146" t="s">
-        <v>510</v>
-      </c>
       <c r="D146" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8952,9 +8958,6 @@
       <c r="G146" t="s">
         <v>41</v>
       </c>
-      <c r="H146" t="s">
-        <v>262</v>
-      </c>
       <c r="I146" t="s">
         <v>23</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>141</v>
       </c>
       <c r="N146" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O146" t="s">
         <v>24</v>
@@ -8985,13 +8988,13 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>530</v>
       </c>
       <c r="D147" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -9000,7 +9003,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="I147" t="s">
         <v>23</v>
@@ -9015,7 +9018,7 @@
         <v>141</v>
       </c>
       <c r="N147" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O147" t="s">
         <v>24</v>
@@ -9032,13 +9035,13 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D148" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -9047,7 +9050,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="I148" t="s">
         <v>23</v>
@@ -9062,7 +9065,7 @@
         <v>141</v>
       </c>
       <c r="N148" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O148" t="s">
         <v>24</v>
@@ -9079,13 +9082,13 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C149" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D149" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -9109,7 +9112,7 @@
         <v>141</v>
       </c>
       <c r="N149" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O149" t="s">
         <v>24</v>
@@ -9126,13 +9129,13 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D150" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -9152,11 +9155,14 @@
       <c r="K150" t="s">
         <v>23</v>
       </c>
+      <c r="L150" t="s">
+        <v>458</v>
+      </c>
       <c r="M150" t="s">
         <v>141</v>
       </c>
       <c r="N150" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O150" t="s">
         <v>24</v>
@@ -9173,13 +9179,13 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C151" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="D151" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -9190,6 +9196,9 @@
       <c r="G151" t="s">
         <v>41</v>
       </c>
+      <c r="H151" t="s">
+        <v>35</v>
+      </c>
       <c r="I151" t="s">
         <v>23</v>
       </c>
@@ -9198,15 +9207,12 @@
       </c>
       <c r="K151" t="s">
         <v>23</v>
-      </c>
-      <c r="L151" t="s">
-        <v>459</v>
       </c>
       <c r="M151" t="s">
         <v>141</v>
       </c>
       <c r="N151" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="O151" t="s">
         <v>24</v>
@@ -9223,25 +9229,25 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="H152" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="I152" t="s">
         <v>23</v>
@@ -9256,7 +9262,7 @@
         <v>141</v>
       </c>
       <c r="N152" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O152" t="s">
         <v>24</v>
@@ -9273,25 +9279,22 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D153" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="G153" t="s">
-        <v>438</v>
-      </c>
-      <c r="H153" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I153" t="s">
         <v>23</v>
@@ -9306,7 +9309,7 @@
         <v>141</v>
       </c>
       <c r="N153" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O153" t="s">
         <v>24</v>
@@ -9323,22 +9326,25 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D154" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G154" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="H154" t="s">
+        <v>444</v>
       </c>
       <c r="I154" t="s">
         <v>23</v>
@@ -9353,7 +9359,7 @@
         <v>141</v>
       </c>
       <c r="N154" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O154" t="s">
         <v>24</v>
@@ -9370,25 +9376,22 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C155" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G155" t="s">
-        <v>442</v>
-      </c>
-      <c r="H155" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I155" t="s">
         <v>23</v>
@@ -9403,7 +9406,7 @@
         <v>141</v>
       </c>
       <c r="N155" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O155" t="s">
         <v>24</v>
@@ -9420,22 +9423,25 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C156" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156" t="s">
+        <v>374</v>
+      </c>
+      <c r="G156" t="s">
         <v>375</v>
       </c>
-      <c r="G156" t="s">
-        <v>442</v>
+      <c r="H156" t="s">
+        <v>449</v>
       </c>
       <c r="I156" t="s">
         <v>23</v>
@@ -9450,7 +9456,7 @@
         <v>141</v>
       </c>
       <c r="N156" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O156" t="s">
         <v>24</v>
@@ -9467,25 +9473,22 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C157" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D157" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G157" t="s">
-        <v>376</v>
-      </c>
-      <c r="H157" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="I157" t="s">
         <v>23</v>
@@ -9500,7 +9503,7 @@
         <v>141</v>
       </c>
       <c r="N157" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O157" t="s">
         <v>24</v>
@@ -9517,22 +9520,22 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C158" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D158" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I158" t="s">
         <v>23</v>
@@ -9547,7 +9550,7 @@
         <v>141</v>
       </c>
       <c r="N158" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O158" t="s">
         <v>24</v>
@@ -9564,22 +9567,22 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C159" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D159" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I159" t="s">
         <v>23</v>
@@ -9594,7 +9597,7 @@
         <v>141</v>
       </c>
       <c r="N159" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O159" t="s">
         <v>24</v>
@@ -9611,22 +9614,25 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C160" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D160" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G160" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="H160" t="s">
+        <v>407</v>
       </c>
       <c r="I160" t="s">
         <v>23</v>
@@ -9636,12 +9642,15 @@
       </c>
       <c r="K160" t="s">
         <v>23</v>
+      </c>
+      <c r="L160" t="s">
+        <v>458</v>
       </c>
       <c r="M160" t="s">
         <v>141</v>
       </c>
       <c r="N160" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O160" t="s">
         <v>24</v>
@@ -9658,25 +9667,22 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C161" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D161" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G161" t="s">
-        <v>442</v>
-      </c>
-      <c r="H161" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="I161" t="s">
         <v>23</v>
@@ -9686,15 +9692,12 @@
       </c>
       <c r="K161" t="s">
         <v>23</v>
-      </c>
-      <c r="L161" t="s">
-        <v>459</v>
       </c>
       <c r="M161" t="s">
         <v>141</v>
       </c>
       <c r="N161" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O161" t="s">
         <v>24</v>
@@ -9711,22 +9714,25 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C162" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D162" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G162" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="H162" t="s">
+        <v>444</v>
       </c>
       <c r="I162" t="s">
         <v>23</v>
@@ -9741,7 +9747,7 @@
         <v>141</v>
       </c>
       <c r="N162" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O162" t="s">
         <v>24</v>
@@ -9758,25 +9764,22 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G163" t="s">
-        <v>442</v>
-      </c>
-      <c r="H163" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I163" t="s">
         <v>23</v>
@@ -9791,7 +9794,7 @@
         <v>141</v>
       </c>
       <c r="N163" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O163" t="s">
         <v>24</v>
@@ -9808,22 +9811,22 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C164" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D164" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I164" t="s">
         <v>23</v>
@@ -9838,7 +9841,7 @@
         <v>141</v>
       </c>
       <c r="N164" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O164" t="s">
         <v>24</v>
@@ -9855,22 +9858,22 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C165" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D165" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G165" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I165" t="s">
         <v>23</v>
@@ -9885,7 +9888,7 @@
         <v>141</v>
       </c>
       <c r="N165" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O165" t="s">
         <v>24</v>
@@ -9902,22 +9905,22 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C166" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D166" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I166" t="s">
         <v>23</v>
@@ -9932,7 +9935,7 @@
         <v>141</v>
       </c>
       <c r="N166" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O166" t="s">
         <v>24</v>
@@ -9949,22 +9952,22 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C167" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D167" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I167" t="s">
         <v>23</v>
@@ -9979,7 +9982,7 @@
         <v>141</v>
       </c>
       <c r="N167" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O167" t="s">
         <v>24</v>
@@ -9996,22 +9999,22 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C168" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D168" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I168" t="s">
         <v>23</v>
@@ -10026,7 +10029,7 @@
         <v>141</v>
       </c>
       <c r="N168" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O168" t="s">
         <v>24</v>
@@ -10043,22 +10046,22 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C169" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D169" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G169" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I169" t="s">
         <v>23</v>
@@ -10073,7 +10076,7 @@
         <v>141</v>
       </c>
       <c r="N169" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O169" t="s">
         <v>24</v>
@@ -10090,22 +10093,22 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D170" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G170" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -10120,7 +10123,7 @@
         <v>141</v>
       </c>
       <c r="N170" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O170" t="s">
         <v>24</v>
@@ -10137,22 +10140,22 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D171" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G171" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -10167,7 +10170,7 @@
         <v>141</v>
       </c>
       <c r="N171" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O171" t="s">
         <v>24</v>
@@ -10184,22 +10187,22 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I172" t="s">
         <v>23</v>
@@ -10214,7 +10217,7 @@
         <v>141</v>
       </c>
       <c r="N172" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O172" t="s">
         <v>24</v>
@@ -10231,22 +10234,22 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D173" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I173" t="s">
         <v>23</v>
@@ -10261,7 +10264,7 @@
         <v>141</v>
       </c>
       <c r="N173" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O173" t="s">
         <v>24</v>
@@ -10278,22 +10281,22 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C174" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D174" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I174" t="s">
         <v>23</v>
@@ -10308,7 +10311,7 @@
         <v>141</v>
       </c>
       <c r="N174" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="O174" t="s">
         <v>24</v>
@@ -10325,22 +10328,22 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C175" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I175" t="s">
         <v>23</v>
@@ -10355,7 +10358,7 @@
         <v>141</v>
       </c>
       <c r="N175" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="O175" t="s">
         <v>24</v>
@@ -10372,22 +10375,25 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C176" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G176" t="s">
-        <v>442</v>
+        <v>262</v>
+      </c>
+      <c r="H176" t="s">
+        <v>495</v>
       </c>
       <c r="I176" t="s">
         <v>23</v>
@@ -10405,7 +10411,7 @@
         <v>171</v>
       </c>
       <c r="O176" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P176" t="s">
         <v>24</v>
@@ -10419,25 +10425,22 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D177" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="G177" t="s">
-        <v>263</v>
-      </c>
-      <c r="H177" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="I177" t="s">
         <v>23</v>
@@ -10452,10 +10455,10 @@
         <v>141</v>
       </c>
       <c r="N177" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P177" t="s">
         <v>24</v>
@@ -10469,22 +10472,22 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C178" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D178" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I178" t="s">
         <v>23</v>
@@ -10499,7 +10502,7 @@
         <v>141</v>
       </c>
       <c r="N178" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O178" t="s">
         <v>24</v>
@@ -10516,22 +10519,22 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C179" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I179" t="s">
         <v>23</v>
@@ -10546,7 +10549,7 @@
         <v>141</v>
       </c>
       <c r="N179" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="O179" t="s">
         <v>24</v>
@@ -10563,22 +10566,22 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D180" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I180" t="s">
         <v>23</v>
@@ -10593,7 +10596,7 @@
         <v>141</v>
       </c>
       <c r="N180" t="s">
-        <v>193</v>
+        <v>504</v>
       </c>
       <c r="O180" t="s">
         <v>24</v>
@@ -10610,22 +10613,25 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C181" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D181" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G181" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="H181" t="s">
+        <v>507</v>
       </c>
       <c r="I181" t="s">
         <v>23</v>
@@ -10640,7 +10646,7 @@
         <v>141</v>
       </c>
       <c r="N181" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="O181" t="s">
         <v>24</v>
@@ -10657,25 +10663,25 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D182" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G182" t="s">
-        <v>442</v>
+        <v>262</v>
       </c>
       <c r="H182" t="s">
-        <v>508</v>
+        <v>51</v>
       </c>
       <c r="I182" t="s">
         <v>23</v>
@@ -10690,7 +10696,7 @@
         <v>141</v>
       </c>
       <c r="N182" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="O182" t="s">
         <v>24</v>
@@ -10707,25 +10713,22 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C183" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D183" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
+        <v>261</v>
+      </c>
+      <c r="G183" t="s">
         <v>262</v>
-      </c>
-      <c r="G183" t="s">
-        <v>263</v>
-      </c>
-      <c r="H183" t="s">
-        <v>51</v>
       </c>
       <c r="I183" t="s">
         <v>23</v>
@@ -10740,7 +10743,7 @@
         <v>141</v>
       </c>
       <c r="N183" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O183" t="s">
         <v>24</v>
@@ -10757,22 +10760,25 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C184" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D184" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>262</v>
+        <v>519</v>
       </c>
       <c r="G184" t="s">
-        <v>263</v>
+        <v>520</v>
+      </c>
+      <c r="H184" t="s">
+        <v>521</v>
       </c>
       <c r="I184" t="s">
         <v>23</v>
@@ -10787,7 +10793,7 @@
         <v>141</v>
       </c>
       <c r="N184" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O184" t="s">
         <v>24</v>
@@ -10804,25 +10810,25 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C185" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D185" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G185" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H185" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="I185" t="s">
         <v>23</v>
@@ -10837,7 +10843,7 @@
         <v>141</v>
       </c>
       <c r="N185" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="O185" t="s">
         <v>24</v>
@@ -10854,25 +10860,22 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>285</v>
-      </c>
-      <c r="C186" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="D186" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>526</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>527</v>
+        <v>41</v>
       </c>
       <c r="H186" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="I186" t="s">
         <v>23</v>
@@ -10884,10 +10887,10 @@
         <v>23</v>
       </c>
       <c r="M186" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="N186" t="s">
-        <v>529</v>
+        <v>24</v>
       </c>
       <c r="O186" t="s">
         <v>24</v>
@@ -10904,22 +10907,22 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D187" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>544</v>
       </c>
       <c r="H187" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I187" t="s">
         <v>23</v>
@@ -10931,7 +10934,7 @@
         <v>23</v>
       </c>
       <c r="M187" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="N187" t="s">
         <v>24</v>
@@ -10951,22 +10954,25 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>542</v>
+        <v>541</v>
+      </c>
+      <c r="C188" t="s">
+        <v>546</v>
       </c>
       <c r="D188" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>544</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>545</v>
+        <v>41</v>
       </c>
       <c r="H188" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I188" t="s">
         <v>23</v>
@@ -10978,10 +10984,10 @@
         <v>23</v>
       </c>
       <c r="M188" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N188" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O188" t="s">
         <v>24</v>
@@ -10998,25 +11004,25 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C189" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D189" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H189" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I189" t="s">
         <v>23</v>
@@ -11028,13 +11034,13 @@
         <v>23</v>
       </c>
       <c r="M189" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N189" t="s">
         <v>19</v>
       </c>
       <c r="O189" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P189" t="s">
         <v>24</v>
@@ -11048,25 +11054,22 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C190" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D190" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
-      </c>
-      <c r="G190" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H190" t="s">
-        <v>552</v>
+        <v>31</v>
       </c>
       <c r="I190" t="s">
         <v>23</v>
@@ -11078,13 +11081,13 @@
         <v>23</v>
       </c>
       <c r="M190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N190" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O190" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P190" t="s">
         <v>24</v>
@@ -11098,13 +11101,13 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C191" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D191" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -11125,10 +11128,10 @@
         <v>23</v>
       </c>
       <c r="M191" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N191" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O191" t="s">
         <v>24</v>
@@ -11145,13 +11148,13 @@
         <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C192" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D192" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -11172,10 +11175,10 @@
         <v>23</v>
       </c>
       <c r="M192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N192" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="O192" t="s">
         <v>24</v>
@@ -11192,13 +11195,13 @@
         <v>19</v>
       </c>
       <c r="B193" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C193" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D193" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -11219,10 +11222,10 @@
         <v>23</v>
       </c>
       <c r="M193" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N193" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O193" t="s">
         <v>24</v>
@@ -11239,13 +11242,13 @@
         <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C194" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D194" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -11253,8 +11256,11 @@
       <c r="F194" t="s">
         <v>40</v>
       </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
       <c r="H194" t="s">
-        <v>31</v>
+        <v>540</v>
       </c>
       <c r="I194" t="s">
         <v>23</v>
@@ -11266,10 +11272,10 @@
         <v>23</v>
       </c>
       <c r="M194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N194" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O194" t="s">
         <v>24</v>
@@ -11286,25 +11292,19 @@
         <v>19</v>
       </c>
       <c r="B195" t="s">
-        <v>542</v>
-      </c>
-      <c r="C195" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D195" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
-      </c>
-      <c r="H195" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="I195" t="s">
         <v>23</v>
@@ -11316,10 +11316,10 @@
         <v>23</v>
       </c>
       <c r="M195" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="N195" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="O195" t="s">
         <v>24</v>
@@ -11336,19 +11336,19 @@
         <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="C196" t="s">
+        <v>565</v>
       </c>
       <c r="D196" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>59</v>
-      </c>
-      <c r="G196" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I196" t="s">
         <v>23</v>
@@ -11360,10 +11360,10 @@
         <v>23</v>
       </c>
       <c r="M196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N196" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O196" t="s">
         <v>24</v>
@@ -11380,19 +11380,22 @@
         <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C197" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D197" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>568</v>
+        <v>59</v>
+      </c>
+      <c r="G197" t="s">
+        <v>60</v>
       </c>
       <c r="I197" t="s">
         <v>23</v>
@@ -11404,10 +11407,10 @@
         <v>23</v>
       </c>
       <c r="M197" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N197" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O197" t="s">
         <v>24</v>
@@ -11424,13 +11427,13 @@
         <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C198" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D198" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -11451,10 +11454,10 @@
         <v>23</v>
       </c>
       <c r="M198" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N198" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="O198" t="s">
         <v>24</v>
@@ -11471,13 +11474,13 @@
         <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C199" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D199" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -11498,10 +11501,10 @@
         <v>23</v>
       </c>
       <c r="M199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N199" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="O199" t="s">
         <v>24</v>
@@ -11518,13 +11521,13 @@
         <v>19</v>
       </c>
       <c r="B200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D200" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -11545,10 +11548,10 @@
         <v>23</v>
       </c>
       <c r="M200" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N200" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O200" t="s">
         <v>24</v>
@@ -11565,13 +11568,13 @@
         <v>19</v>
       </c>
       <c r="B201" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D201" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -11592,10 +11595,10 @@
         <v>23</v>
       </c>
       <c r="M201" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N201" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="O201" t="s">
         <v>24</v>
@@ -11612,13 +11615,13 @@
         <v>19</v>
       </c>
       <c r="B202" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C202" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D202" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -11639,10 +11642,10 @@
         <v>23</v>
       </c>
       <c r="M202" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N202" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O202" t="s">
         <v>24</v>
@@ -11659,13 +11662,13 @@
         <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C203" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D203" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -11686,10 +11689,10 @@
         <v>23</v>
       </c>
       <c r="M203" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N203" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O203" t="s">
         <v>24</v>
@@ -11706,13 +11709,13 @@
         <v>19</v>
       </c>
       <c r="B204" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C204" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D204" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -11733,10 +11736,10 @@
         <v>23</v>
       </c>
       <c r="M204" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N204" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O204" t="s">
         <v>24</v>
@@ -11753,13 +11756,13 @@
         <v>19</v>
       </c>
       <c r="B205" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C205" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="D205" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -11780,10 +11783,10 @@
         <v>23</v>
       </c>
       <c r="M205" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N205" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="O205" t="s">
         <v>24</v>
@@ -11800,13 +11803,13 @@
         <v>19</v>
       </c>
       <c r="B206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C206" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D206" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -11827,10 +11830,10 @@
         <v>23</v>
       </c>
       <c r="M206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N206" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O206" t="s">
         <v>24</v>
@@ -11847,13 +11850,13 @@
         <v>19</v>
       </c>
       <c r="B207" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D207" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -11874,10 +11877,10 @@
         <v>23</v>
       </c>
       <c r="M207" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N207" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O207" t="s">
         <v>24</v>
@@ -11894,13 +11897,13 @@
         <v>19</v>
       </c>
       <c r="B208" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C208" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D208" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -11921,10 +11924,10 @@
         <v>23</v>
       </c>
       <c r="M208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N208" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O208" t="s">
         <v>24</v>
@@ -11941,22 +11944,22 @@
         <v>19</v>
       </c>
       <c r="B209" t="s">
-        <v>563</v>
-      </c>
-      <c r="C209" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D209" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="s">
         <v>59</v>
       </c>
       <c r="G209" t="s">
-        <v>60</v>
+        <v>564</v>
+      </c>
+      <c r="H209" t="s">
+        <v>594</v>
       </c>
       <c r="I209" t="s">
         <v>23</v>
@@ -11968,10 +11971,10 @@
         <v>23</v>
       </c>
       <c r="M209" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N209" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O209" t="s">
         <v>24</v>
@@ -11988,37 +11991,28 @@
         <v>19</v>
       </c>
       <c r="B210" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="C210" t="s">
+        <v>595</v>
       </c>
       <c r="D210" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="s">
         <v>59</v>
       </c>
       <c r="G210" t="s">
-        <v>565</v>
-      </c>
-      <c r="H210" t="s">
-        <v>595</v>
-      </c>
-      <c r="I210" t="s">
-        <v>23</v>
-      </c>
-      <c r="J210" t="s">
-        <v>23</v>
-      </c>
-      <c r="K210" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N210" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
@@ -12035,28 +12029,22 @@
         <v>19</v>
       </c>
       <c r="B211" t="s">
-        <v>593</v>
+        <v>363</v>
       </c>
       <c r="C211" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
-        <v>59</v>
-      </c>
-      <c r="G211" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M211" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N211" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="O211" t="s">
         <v>24</v>
@@ -12073,19 +12061,19 @@
         <v>19</v>
       </c>
       <c r="B212" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C212" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D212" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="M212" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N212" t="s">
         <v>24</v>
@@ -12105,19 +12093,19 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
+        <v>363</v>
+      </c>
+      <c r="C213" t="s">
         <v>364</v>
       </c>
-      <c r="C213" t="s">
-        <v>600</v>
-      </c>
       <c r="D213" t="s">
-        <v>601</v>
+        <v>365</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="N213" t="s">
         <v>24</v>
@@ -12137,19 +12125,16 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>364</v>
-      </c>
-      <c r="C214" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N214" t="s">
         <v>24</v>
@@ -12166,19 +12151,19 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>601</v>
       </c>
       <c r="D215" t="s">
-        <v>368</v>
+        <v>602</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="M215" t="s">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="N215" t="s">
         <v>24</v>
@@ -12198,16 +12183,16 @@
         <v>24</v>
       </c>
       <c r="B216" t="s">
+        <v>603</v>
+      </c>
+      <c r="D216" t="s">
         <v>602</v>
-      </c>
-      <c r="D216" t="s">
-        <v>603</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="M216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N216" t="s">
         <v>24</v>
@@ -12224,19 +12209,22 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B217" t="s">
         <v>604</v>
       </c>
+      <c r="C217" t="s">
+        <v>605</v>
+      </c>
       <c r="D217" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="M217" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N217" t="s">
         <v>24</v>
@@ -12256,19 +12244,19 @@
         <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C218" t="s">
         <v>606</v>
       </c>
       <c r="D218" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="M218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N218" t="s">
         <v>24</v>
@@ -12288,19 +12276,19 @@
         <v>19</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C219" t="s">
         <v>607</v>
       </c>
       <c r="D219" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="M219" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N219" t="s">
         <v>24</v>
@@ -12315,45 +12303,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>19</v>
-      </c>
-      <c r="B220" t="s">
-        <v>605</v>
-      </c>
-      <c r="C220" t="s">
-        <v>608</v>
-      </c>
-      <c r="D220" t="s">
-        <v>603</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="M220" t="s">
-        <v>324</v>
-      </c>
-      <c r="N220" t="s">
-        <v>24</v>
-      </c>
-      <c r="O220" t="s">
-        <v>24</v>
-      </c>
-      <c r="P220" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U220">
-    <sortCondition ref="M2:M220"/>
-    <sortCondition ref="N2:N220"/>
-    <sortCondition ref="O2:O220"/>
-    <sortCondition ref="P2:P220"/>
-    <sortCondition ref="Q2:Q220"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U219">
+    <sortCondition ref="M2:M219"/>
+    <sortCondition ref="N2:N219"/>
+    <sortCondition ref="O2:O219"/>
+    <sortCondition ref="P2:P219"/>
+    <sortCondition ref="Q2:Q219"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/1.0 orgtree_position_rank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901993D1-CC6B-4EA6-BADC-F66F330D0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F980A6-4052-4C8C-8AE8-C0CCDF999521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="609">
   <si>
     <t>InsideGov</t>
   </si>
@@ -70,15 +70,15 @@
     <t>L4_Index</t>
   </si>
   <si>
+    <t>L5_Index</t>
+  </si>
+  <si>
     <t>Change_OrgName</t>
   </si>
   <si>
     <t>Alias_OrgName</t>
   </si>
   <si>
-    <t>L5_Index</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -739,250 +739,253 @@
     <t>506</t>
   </si>
   <si>
+    <t>당중앙위원회_신소실</t>
+  </si>
+  <si>
+    <t>1.1.508.0.0</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>당중앙위원회_조사부</t>
+  </si>
+  <si>
+    <t>1.1.509.0.0</t>
+  </si>
+  <si>
+    <t>총참모부</t>
+  </si>
+  <si>
+    <t>정찰총국_제5국</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>당중앙위원회_청년사업부</t>
+  </si>
+  <si>
+    <t>1.1.510.0.0</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>당중앙위원회_청소년사업부</t>
+  </si>
+  <si>
+    <t>1.1.511.0.0</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>당중앙위원회_행정부</t>
+  </si>
+  <si>
+    <t>1.1.512.0.0</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>당중앙위원회_정무국</t>
+  </si>
+  <si>
+    <t>1.1.513.0.0</t>
+  </si>
+  <si>
+    <t>국장</t>
+  </si>
+  <si>
+    <t>부국장</t>
+  </si>
+  <si>
     <t>당중앙위원회_비서국B</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>당중앙위원회_군사부</t>
+  </si>
+  <si>
+    <t>1.1.514.0.0</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>당중앙위원회_계획재정부</t>
+  </si>
+  <si>
+    <t>1.1.515.0.0</t>
+  </si>
+  <si>
+    <t>당중앙위원회_경제부</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>당중앙위원회_38호실</t>
+  </si>
+  <si>
+    <t>1.1.516.0.0</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>당중앙위원회_영화부</t>
+  </si>
+  <si>
+    <t>1.1.517.0.0</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>당중앙위원회_검열위원회</t>
+  </si>
+  <si>
+    <t>1.1.518.0.0</t>
+  </si>
+  <si>
+    <t>내각</t>
+  </si>
+  <si>
+    <t>국가검열위원회</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>당중앙위원회_대외연락부</t>
+  </si>
+  <si>
+    <t>1.1.519.0.0</t>
+  </si>
+  <si>
+    <t>225국</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>당중앙위원회_대외연락부_사회문화부</t>
+  </si>
+  <si>
+    <t>1.1.519.X.0</t>
+  </si>
+  <si>
+    <t>225국_X</t>
+  </si>
+  <si>
+    <t>? 부 속한 부?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>당중앙위원회_경제계획부</t>
+  </si>
+  <si>
+    <t>1.1.520.0.0</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>당중앙위원회_대남연락부</t>
+  </si>
+  <si>
+    <t>1.1.521.0.0</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>당중앙위원회_문화연락부</t>
+  </si>
+  <si>
+    <t>1.1.522.0.0</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>당중앙위원회_경공업부</t>
+  </si>
+  <si>
+    <t>1.1.6.0.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.1.7.0.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>당중앙위원회_과학교육부</t>
+  </si>
+  <si>
+    <t>1.1.8.0.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>당중앙위원회_국제부</t>
+  </si>
+  <si>
+    <t>1.1.9.0.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1.1.X.0.0</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>당중앙위원회_신소실</t>
-  </si>
-  <si>
-    <t>1.1.508.0.0</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>당중앙위원회_조사부</t>
-  </si>
-  <si>
-    <t>1.1.509.0.0</t>
-  </si>
-  <si>
-    <t>총참모부</t>
-  </si>
-  <si>
-    <t>정찰총국_제5국</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>당중앙위원회_청년사업부</t>
-  </si>
-  <si>
-    <t>1.1.510.0.0</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>당중앙위원회_청소년사업부</t>
-  </si>
-  <si>
-    <t>1.1.511.0.0</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>당중앙위원회_행정부</t>
-  </si>
-  <si>
-    <t>1.1.512.0.0</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>당중앙위원회_정무국</t>
-  </si>
-  <si>
-    <t>1.1.513.0.0</t>
-  </si>
-  <si>
-    <t>국장</t>
-  </si>
-  <si>
-    <t>부국장</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>당중앙위원회_군사부</t>
-  </si>
-  <si>
-    <t>1.1.514.0.0</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>당중앙위원회_계획재정부</t>
-  </si>
-  <si>
-    <t>1.1.515.0.0</t>
-  </si>
-  <si>
-    <t>당중앙위원회_경제부</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>당중앙위원회_38호실</t>
-  </si>
-  <si>
-    <t>1.1.516.0.0</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>당중앙위원회_영화부</t>
-  </si>
-  <si>
-    <t>1.1.517.0.0</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>당중앙위원회_검열위원회</t>
-  </si>
-  <si>
-    <t>1.1.518.0.0</t>
-  </si>
-  <si>
-    <t>내각</t>
-  </si>
-  <si>
-    <t>국가검열위원회</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>당중앙위원회_대외연락부</t>
-  </si>
-  <si>
-    <t>1.1.519.0.0</t>
-  </si>
-  <si>
-    <t>225국</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>당중앙위원회_대외연락부_사회문화부</t>
-  </si>
-  <si>
-    <t>225국_X</t>
-  </si>
-  <si>
-    <t>? 부 속한 부?</t>
-  </si>
-  <si>
-    <t>당중앙위원회_경제계획부</t>
-  </si>
-  <si>
-    <t>1.1.520.0.0</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>당중앙위원회_대남연락부</t>
-  </si>
-  <si>
-    <t>1.1.521.0.0</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>당중앙위원회_문화연락부</t>
-  </si>
-  <si>
-    <t>1.1.522.0.0</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>당중앙위원회_경공업부</t>
-  </si>
-  <si>
-    <t>1.1.6.0.0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1.1.7.0.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>당중앙위원회_과학교육부</t>
-  </si>
-  <si>
-    <t>1.1.8.0.0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>당중앙위원회_국제부</t>
-  </si>
-  <si>
-    <t>1.1.9.0.0</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>당중앙위원회_정치국_정치국상무위원회</t>
-  </si>
-  <si>
-    <t>1.1.X.0.0</t>
   </si>
   <si>
     <t>위원, 정치위원</t>
@@ -992,9 +995,6 @@
 -&gt; 1948년 노동당 중앙조직에 "당중앙위원회_정치위원회"가 있었음. (김정일 후계체제 구출 시기 폐지) --&gt; OrgName 수정 필요</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>당중앙위원회_정치위원회</t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
     <t>총영사관</t>
   </si>
   <si>
-    <t>1.1.519.X.0</t>
+    <t>외곽</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1867,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2215,15 +2214,14 @@
   <dimension ref="A1:S219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="43.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="18" max="19" width="25.453125" customWidth="1"/>
+    <col min="1" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -2276,13 +2274,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -3000,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
         <v>311</v>
@@ -5801,32 +5799,26 @@
         <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="J79" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="K79" t="s">
         <v>100</v>
       </c>
-      <c r="L79" t="s">
-        <v>240</v>
-      </c>
       <c r="M79" t="s">
         <v>19</v>
       </c>
@@ -5866,10 +5858,10 @@
         <v>36</v>
       </c>
       <c r="I80" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J80" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K80" t="s">
         <v>100</v>
@@ -5881,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="O80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P80" t="s">
         <v>24</v>
@@ -5898,10 +5890,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -5913,10 +5905,10 @@
         <v>36</v>
       </c>
       <c r="I81" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="K81" t="s">
         <v>100</v>
@@ -6007,10 +5999,10 @@
         <v>36</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="K83" t="s">
         <v>100</v>
@@ -6048,19 +6040,19 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="I84" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="K84" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="M84" t="s">
         <v>19</v>
@@ -6069,7 +6061,7 @@
         <v>19</v>
       </c>
       <c r="O84" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P84" t="s">
         <v>24</v>
@@ -6086,28 +6078,28 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="K85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M85" t="s">
         <v>19</v>
@@ -6116,7 +6108,7 @@
         <v>19</v>
       </c>
       <c r="O85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
@@ -6133,10 +6125,10 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -6151,10 +6143,10 @@
         <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="K86" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M86" t="s">
         <v>19</v>
@@ -6163,7 +6155,7 @@
         <v>19</v>
       </c>
       <c r="O86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P86" t="s">
         <v>24</v>
@@ -6180,28 +6172,25 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I87" t="s">
         <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="K87" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M87" t="s">
         <v>19</v>
@@ -6210,7 +6199,7 @@
         <v>19</v>
       </c>
       <c r="O87" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P87" t="s">
         <v>24</v>
@@ -6227,25 +6216,28 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>36</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="J88" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="K88" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M88" t="s">
         <v>19</v>
@@ -6254,7 +6246,7 @@
         <v>19</v>
       </c>
       <c r="O88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P88" t="s">
         <v>24</v>
@@ -6271,28 +6263,31 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="J89" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="K89" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M89" t="s">
         <v>19</v>
@@ -6301,7 +6296,7 @@
         <v>19</v>
       </c>
       <c r="O89" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P89" t="s">
         <v>24</v>
@@ -6318,10 +6313,10 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -6336,13 +6331,13 @@
         <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J90" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K90" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M90" t="s">
         <v>19</v>
@@ -6351,7 +6346,7 @@
         <v>19</v>
       </c>
       <c r="O90" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P90" t="s">
         <v>24</v>
@@ -6368,43 +6363,43 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" t="s">
+        <v>282</v>
+      </c>
+      <c r="J91" t="s">
+        <v>293</v>
+      </c>
+      <c r="K91" t="s">
         <v>289</v>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s">
-        <v>41</v>
-      </c>
-      <c r="H91" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" t="s">
-        <v>284</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
+        <v>294</v>
+      </c>
+      <c r="M91" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" t="s">
         <v>290</v>
       </c>
-      <c r="K91" t="s">
-        <v>291</v>
-      </c>
-      <c r="M91" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" t="s">
-        <v>19</v>
-      </c>
-      <c r="O91" t="s">
-        <v>292</v>
-      </c>
       <c r="P91" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="Q91" t="s">
         <v>24</v>
@@ -6418,13 +6413,13 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
-        <v>608</v>
+        <v>297</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>35</v>
@@ -6433,16 +6428,13 @@
         <v>36</v>
       </c>
       <c r="I92" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="K92" t="s">
-        <v>291</v>
-      </c>
-      <c r="L92" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M92" t="s">
         <v>19</v>
@@ -6451,10 +6443,10 @@
         <v>19</v>
       </c>
       <c r="O92" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P92" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="Q92" t="s">
         <v>24</v>
@@ -6468,10 +6460,10 @@
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -6486,10 +6478,10 @@
         <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K93" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M93" t="s">
         <v>19</v>
@@ -6498,7 +6490,7 @@
         <v>19</v>
       </c>
       <c r="O93" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P93" t="s">
         <v>24</v>
@@ -6515,10 +6507,10 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -6533,10 +6525,10 @@
         <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="K94" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M94" t="s">
         <v>19</v>
@@ -6545,7 +6537,7 @@
         <v>19</v>
       </c>
       <c r="O94" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P94" t="s">
         <v>24</v>
@@ -6562,28 +6554,34 @@
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>79</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J95" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>306</v>
+        <v>100</v>
+      </c>
+      <c r="L95" t="s">
+        <v>320</v>
       </c>
       <c r="M95" t="s">
         <v>19</v>
@@ -6592,7 +6590,7 @@
         <v>19</v>
       </c>
       <c r="O95" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P95" t="s">
         <v>24</v>
@@ -6609,10 +6607,10 @@
         <v>20</v>
       </c>
       <c r="C96" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" t="s">
         <v>319</v>
-      </c>
-      <c r="D96" t="s">
-        <v>320</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -6624,7 +6622,7 @@
         <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I96" t="s">
         <v>23</v>
@@ -6636,7 +6634,7 @@
         <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M96" t="s">
         <v>19</v>
@@ -6645,7 +6643,7 @@
         <v>19</v>
       </c>
       <c r="O96" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P96" t="s">
         <v>24</v>
@@ -6668,7 +6666,7 @@
         <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -6680,7 +6678,7 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I97" t="s">
         <v>23</v>
@@ -6691,6 +6689,9 @@
       <c r="K97" t="s">
         <v>23</v>
       </c>
+      <c r="L97" t="s">
+        <v>608</v>
+      </c>
       <c r="M97" t="s">
         <v>19</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="O97" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P97" t="s">
         <v>24</v>
@@ -6718,7 +6719,7 @@
         <v>326</v>
       </c>
       <c r="D98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -6739,7 +6740,7 @@
         <v>19</v>
       </c>
       <c r="O98" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P98" t="s">
         <v>24</v>
@@ -6759,7 +6760,7 @@
         <v>329</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -6780,7 +6781,7 @@
         <v>19</v>
       </c>
       <c r="O99" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P99" t="s">
         <v>24</v>
@@ -6800,7 +6801,7 @@
         <v>330</v>
       </c>
       <c r="D100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -6821,7 +6822,7 @@
         <v>19</v>
       </c>
       <c r="O100" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P100" t="s">
         <v>24</v>
@@ -6841,7 +6842,7 @@
         <v>331</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -6862,7 +6863,7 @@
         <v>19</v>
       </c>
       <c r="O101" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P101" t="s">
         <v>24</v>
@@ -6903,10 +6904,10 @@
         <v>19</v>
       </c>
       <c r="O102" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P102" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="Q102" t="s">
         <v>24</v>
@@ -6944,10 +6945,10 @@
         <v>19</v>
       </c>
       <c r="O103" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P103" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="Q103" t="s">
         <v>24</v>
@@ -6985,10 +6986,10 @@
         <v>19</v>
       </c>
       <c r="O104" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P104" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="Q104" t="s">
         <v>24</v>
@@ -7117,16 +7118,16 @@
         <v>36</v>
       </c>
       <c r="I107" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J107" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K107" t="s">
         <v>100</v>
       </c>
       <c r="L107" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M107" t="s">
         <v>19</v>
@@ -7182,7 +7183,7 @@
         <v>19</v>
       </c>
       <c r="N108" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O108" t="s">
         <v>24</v>
@@ -7223,7 +7224,7 @@
         <v>19</v>
       </c>
       <c r="N109" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
@@ -7258,7 +7259,7 @@
         <v>36</v>
       </c>
       <c r="I110" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J110" t="s">
         <v>348</v>
@@ -7267,13 +7268,13 @@
         <v>100</v>
       </c>
       <c r="L110" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M110" t="s">
         <v>19</v>
       </c>
       <c r="N110" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
@@ -7323,7 +7324,7 @@
         <v>19</v>
       </c>
       <c r="N111" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O111" t="s">
         <v>101</v>
@@ -7352,10 +7353,10 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G112" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I112" t="s">
         <v>351</v>
@@ -7370,7 +7371,7 @@
         <v>19</v>
       </c>
       <c r="N112" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O112" t="s">
         <v>101</v>
@@ -7399,10 +7400,10 @@
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I113" t="s">
         <v>351</v>
@@ -7417,7 +7418,7 @@
         <v>19</v>
       </c>
       <c r="N113" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O113" t="s">
         <v>101</v>
@@ -7446,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G114" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I114" t="s">
         <v>351</v>
@@ -7464,7 +7465,7 @@
         <v>19</v>
       </c>
       <c r="N114" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O114" t="s">
         <v>101</v>
@@ -7540,10 +7541,10 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G116" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I116" t="s">
         <v>23</v>
@@ -7634,10 +7635,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G118" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I118" t="s">
         <v>23</v>
@@ -7681,10 +7682,10 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G119" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I119" t="s">
         <v>23</v>
@@ -7775,10 +7776,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G121" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I121" t="s">
         <v>23</v>
@@ -7822,10 +7823,10 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I122" t="s">
         <v>23</v>
@@ -7913,10 +7914,10 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I124" t="s">
         <v>23</v>
@@ -7960,10 +7961,10 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G125" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I125" t="s">
         <v>23</v>
@@ -8007,10 +8008,10 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G126" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I126" t="s">
         <v>23</v>
@@ -8054,10 +8055,10 @@
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G127" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I127" t="s">
         <v>23</v>
@@ -8101,10 +8102,10 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G128" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I128" t="s">
         <v>23</v>
@@ -8148,10 +8149,10 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G129" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I129" t="s">
         <v>23</v>
@@ -8195,10 +8196,10 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G130" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I130" t="s">
         <v>23</v>
@@ -8242,10 +8243,10 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I131" t="s">
         <v>23</v>
@@ -8289,10 +8290,10 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I132" t="s">
         <v>23</v>
@@ -8430,10 +8431,10 @@
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I135" t="s">
         <v>23</v>
@@ -8477,10 +8478,10 @@
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I136" t="s">
         <v>23</v>
@@ -8700,7 +8701,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
         <v>424</v>
@@ -8747,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C142" t="s">
         <v>428</v>
@@ -8762,7 +8763,7 @@
         <v>430</v>
       </c>
       <c r="G142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H142" t="s">
         <v>431</v>
@@ -8797,7 +8798,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
         <v>459</v>
@@ -8809,10 +8810,10 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G143" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I143" t="s">
         <v>23</v>
@@ -8844,7 +8845,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C144" t="s">
         <v>481</v>
@@ -8891,7 +8892,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s">
         <v>509</v>
@@ -8909,7 +8910,7 @@
         <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I145" t="s">
         <v>23</v>
@@ -8941,10 +8942,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D146" t="s">
         <v>529</v>
@@ -8988,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C147" t="s">
         <v>530</v>
@@ -9035,7 +9036,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C148" t="s">
         <v>532</v>
@@ -9082,7 +9083,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C149" t="s">
         <v>534</v>
@@ -9129,7 +9130,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C150" t="s">
         <v>536</v>
@@ -9179,7 +9180,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C151" t="s">
         <v>432</v>
@@ -9229,7 +9230,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C152" t="s">
         <v>434</v>
@@ -9279,7 +9280,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C153" t="s">
         <v>439</v>
@@ -9326,7 +9327,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C154" t="s">
         <v>442</v>
@@ -9376,7 +9377,7 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C155" t="s">
         <v>445</v>
@@ -9423,7 +9424,7 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C156" t="s">
         <v>447</v>
@@ -9473,7 +9474,7 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C157" t="s">
         <v>450</v>
@@ -9520,7 +9521,7 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C158" t="s">
         <v>452</v>
@@ -9567,7 +9568,7 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C159" t="s">
         <v>454</v>
@@ -9614,7 +9615,7 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C160" t="s">
         <v>456</v>
@@ -9667,7 +9668,7 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C161" t="s">
         <v>461</v>
@@ -9714,7 +9715,7 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C162" t="s">
         <v>463</v>
@@ -9764,7 +9765,7 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C163" t="s">
         <v>465</v>
@@ -9811,7 +9812,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C164" t="s">
         <v>467</v>
@@ -9858,7 +9859,7 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C165" t="s">
         <v>469</v>
@@ -9905,7 +9906,7 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C166" t="s">
         <v>471</v>
@@ -9952,7 +9953,7 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C167" t="s">
         <v>473</v>
@@ -9999,7 +10000,7 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C168" t="s">
         <v>475</v>
@@ -10046,7 +10047,7 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
         <v>477</v>
@@ -10093,7 +10094,7 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C170" t="s">
         <v>479</v>
@@ -10140,7 +10141,7 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C171" t="s">
         <v>483</v>
@@ -10187,7 +10188,7 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C172" t="s">
         <v>485</v>
@@ -10234,7 +10235,7 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C173" t="s">
         <v>487</v>
@@ -10281,7 +10282,7 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C174" t="s">
         <v>489</v>
@@ -10328,7 +10329,7 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
         <v>491</v>
@@ -10375,7 +10376,7 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C176" t="s">
         <v>493</v>
@@ -10387,10 +10388,10 @@
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G176" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H176" t="s">
         <v>495</v>
@@ -10425,7 +10426,7 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C177" t="s">
         <v>496</v>
@@ -10472,7 +10473,7 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C178" t="s">
         <v>498</v>
@@ -10519,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C179" t="s">
         <v>500</v>
@@ -10566,7 +10567,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C180" t="s">
         <v>502</v>
@@ -10613,7 +10614,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
         <v>505</v>
@@ -10663,7 +10664,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C182" t="s">
         <v>511</v>
@@ -10675,10 +10676,10 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G182" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H182" t="s">
         <v>51</v>
@@ -10713,7 +10714,7 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C183" t="s">
         <v>514</v>
@@ -10725,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G183" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I183" t="s">
         <v>23</v>
@@ -10760,7 +10761,7 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
         <v>517</v>
@@ -10810,7 +10811,7 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s">
         <v>523</v>
@@ -12012,7 +12013,7 @@
         <v>312</v>
       </c>
       <c r="N210" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
@@ -12163,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="M215" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N215" t="s">
         <v>24</v>
@@ -12192,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="M216" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N216" t="s">
         <v>24</v>
@@ -12224,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="M217" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N217" t="s">
         <v>24</v>
@@ -12256,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="M218" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N218" t="s">
         <v>24</v>
@@ -12288,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N219" t="s">
         <v>24</v>
@@ -12304,7 +12305,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U219">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S219">
     <sortCondition ref="M2:M219"/>
     <sortCondition ref="N2:N219"/>
     <sortCondition ref="O2:O219"/>
